--- a/data/trans_orig/P1201-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1201-Habitat-trans_orig.xlsx
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7308</v>
+        <v>7591</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003089148772578917</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01061682478030467</v>
+        <v>0.01102776091235332</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7273</v>
+        <v>7242</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001538248996847749</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.00526162858170028</v>
+        <v>0.005238676476185236</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>18968</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12263</v>
+        <v>11357</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29281</v>
+        <v>28975</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02733045492892781</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01766921478499036</v>
+        <v>0.01636423443032639</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04219148027137088</v>
+        <v>0.04174956655647141</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -828,19 +828,19 @@
         <v>22879</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15173</v>
+        <v>15542</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32712</v>
+        <v>32556</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03323696527168625</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02204244109574165</v>
+        <v>0.02257903937452253</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04752155858899455</v>
+        <v>0.04729506310735624</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>44</v>
@@ -849,19 +849,19 @@
         <v>41846</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31394</v>
+        <v>30273</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>54743</v>
+        <v>54315</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03027161583715885</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0227100625904889</v>
+        <v>0.02189960800217999</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03960124238850311</v>
+        <v>0.03929111429270685</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>87760</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>73060</v>
+        <v>71869</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>105601</v>
+        <v>105620</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.126453314339793</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1052726598368275</v>
+        <v>0.1035563248142156</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1521594728968585</v>
+        <v>0.1521875869485882</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>107</v>
@@ -899,19 +899,19 @@
         <v>105155</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>87462</v>
+        <v>89015</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>122896</v>
+        <v>125993</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1527635925677739</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1270599982079611</v>
+        <v>0.1293159795838374</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1785369200586708</v>
+        <v>0.1830358294282783</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>196</v>
@@ -920,19 +920,19 @@
         <v>192915</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>170463</v>
+        <v>170491</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>220838</v>
+        <v>221109</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1395545801157335</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1233130142410386</v>
+        <v>0.1233330744438336</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.159754028482763</v>
+        <v>0.1599500506428188</v>
       </c>
     </row>
     <row r="7">
@@ -949,19 +949,19 @@
         <v>85324</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>69718</v>
+        <v>69754</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>103627</v>
+        <v>103502</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1229437976620417</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1004563999615973</v>
+        <v>0.1005084749226944</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1493162432137296</v>
+        <v>0.1491360117879892</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>107</v>
@@ -970,19 +970,19 @@
         <v>105426</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>86686</v>
+        <v>86635</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>122906</v>
+        <v>126555</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1531568737578038</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1259329151517893</v>
+        <v>0.1258591043408038</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1785519883553232</v>
+        <v>0.1838527563038786</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>192</v>
@@ -991,19 +991,19 @@
         <v>190750</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>166259</v>
+        <v>167647</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>215049</v>
+        <v>219218</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1379884709417918</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1202716531688957</v>
+        <v>0.1212754136295369</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1555661371887745</v>
+        <v>0.1585822452520749</v>
       </c>
     </row>
     <row r="8">
@@ -1020,19 +1020,19 @@
         <v>327954</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>302652</v>
+        <v>301753</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>353639</v>
+        <v>354005</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4725484049170879</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4360905666870712</v>
+        <v>0.4347954549962091</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.509556752785525</v>
+        <v>0.5100853406357154</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>347</v>
@@ -1041,19 +1041,19 @@
         <v>338858</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>313828</v>
+        <v>312739</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>365890</v>
+        <v>364119</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4922751882350052</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4559123857978931</v>
+        <v>0.454330724909982</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5315451120504198</v>
+        <v>0.5289734789866081</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>667</v>
@@ -1062,19 +1062,19 @@
         <v>666812</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>633073</v>
+        <v>628935</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>704482</v>
+        <v>701403</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.482371403705355</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4579642285814393</v>
+        <v>0.4549708445587165</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5096217484583142</v>
+        <v>0.5073943272788743</v>
       </c>
     </row>
     <row r="9">
@@ -1091,19 +1091,19 @@
         <v>174005</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>152597</v>
+        <v>151312</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>200655</v>
+        <v>196228</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2507240281521495</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.219876251577714</v>
+        <v>0.2180254699496916</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2891232265465931</v>
+        <v>0.2827448787275871</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>109</v>
@@ -1112,19 +1112,19 @@
         <v>113907</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>95517</v>
+        <v>93443</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>135229</v>
+        <v>134508</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1654782313951519</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1387624251910315</v>
+        <v>0.1357496523845614</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1964537424368402</v>
+        <v>0.1954056983804566</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>278</v>
@@ -1133,19 +1133,19 @@
         <v>287913</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>257005</v>
+        <v>258821</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>316761</v>
+        <v>318065</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2082756804031131</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1859174083740985</v>
+        <v>0.1872305300467116</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2291442416045537</v>
+        <v>0.2300878078667049</v>
       </c>
     </row>
     <row r="10">
@@ -1237,19 +1237,19 @@
         <v>8051</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3022</v>
+        <v>3088</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16009</v>
+        <v>15771</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008370982422589738</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003141738958172333</v>
+        <v>0.00321092443376343</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01664447883973041</v>
+        <v>0.01639770086615193</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -1258,19 +1258,19 @@
         <v>16041</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9166</v>
+        <v>8606</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26065</v>
+        <v>26644</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01656482040129967</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.009464889595793249</v>
+        <v>0.008886618001282877</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0269154606955746</v>
+        <v>0.02751333148574302</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>21</v>
@@ -1279,19 +1279,19 @@
         <v>24092</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>15237</v>
+        <v>15465</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36640</v>
+        <v>36938</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01248189545431927</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007894033686718446</v>
+        <v>0.008012271095589451</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01898244399160513</v>
+        <v>0.01913700518387464</v>
       </c>
     </row>
     <row r="12">
@@ -1308,19 +1308,19 @@
         <v>22872</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14722</v>
+        <v>14521</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>33956</v>
+        <v>33691</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02378006210341851</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01530709974650189</v>
+        <v>0.01509734157300942</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03530476055237387</v>
+        <v>0.03502912687173231</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>50</v>
@@ -1329,19 +1329,19 @@
         <v>54596</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>40990</v>
+        <v>41129</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>70844</v>
+        <v>70740</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05637783161877011</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04232792644542722</v>
+        <v>0.04247150250602831</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07315663832687558</v>
+        <v>0.07304911793334506</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>72</v>
@@ -1350,19 +1350,19 @@
         <v>77468</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>61202</v>
+        <v>61345</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>98655</v>
+        <v>95997</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04013461974223981</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0317079261945241</v>
+        <v>0.03178196147759763</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05111152997586641</v>
+        <v>0.04973458489993824</v>
       </c>
     </row>
     <row r="13">
@@ -1379,19 +1379,19 @@
         <v>148735</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>127060</v>
+        <v>123742</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>171879</v>
+        <v>173293</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1546426767351274</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1321061053624713</v>
+        <v>0.1286571772559872</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1787055347960111</v>
+        <v>0.1801759980629446</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>163</v>
@@ -1400,19 +1400,19 @@
         <v>175834</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>154265</v>
+        <v>152236</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>201383</v>
+        <v>201392</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1815727409783774</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1593003789812937</v>
+        <v>0.1572051311994992</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2079559893121224</v>
+        <v>0.2079654330356441</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>302</v>
@@ -1421,19 +1421,19 @@
         <v>324569</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>292400</v>
+        <v>293949</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>358503</v>
+        <v>360201</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1681537020117488</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1514871862361561</v>
+        <v>0.1522898342390184</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.185734356486713</v>
+        <v>0.1866140348866147</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>112762</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>92298</v>
+        <v>92645</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>133800</v>
+        <v>135319</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1172402457198343</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09596344997088289</v>
+        <v>0.0963242993954662</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1391145607196737</v>
+        <v>0.1406935600244949</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>185</v>
@@ -1471,19 +1471,19 @@
         <v>194584</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>169826</v>
+        <v>169285</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>220227</v>
+        <v>219807</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2009346058304997</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1753687238986338</v>
+        <v>0.1748106124536006</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.227415233270144</v>
+        <v>0.2269810495332944</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>291</v>
@@ -1492,19 +1492,19 @@
         <v>307345</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>274485</v>
+        <v>275380</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>338587</v>
+        <v>342343</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1592303651919512</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1422058013288303</v>
+        <v>0.1426695414503552</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1754162043293001</v>
+        <v>0.1773621743758927</v>
       </c>
     </row>
     <row r="15">
@@ -1521,19 +1521,19 @@
         <v>413566</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>384902</v>
+        <v>382765</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>443656</v>
+        <v>445386</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4299912854775756</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4001891240580699</v>
+        <v>0.3979670961312536</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4612771661506114</v>
+        <v>0.4630759208460677</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>337</v>
@@ -1542,19 +1542,19 @@
         <v>354123</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>326126</v>
+        <v>324126</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>385012</v>
+        <v>384632</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.365681417924289</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.336770374932193</v>
+        <v>0.3347052611866379</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3975779990964641</v>
+        <v>0.3971855876039205</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>730</v>
@@ -1563,19 +1563,19 @@
         <v>767689</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>722697</v>
+        <v>720188</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>808673</v>
+        <v>812621</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3977265185538794</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3744167115704325</v>
+        <v>0.3731170068107386</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4189595756643067</v>
+        <v>0.4210050984745652</v>
       </c>
     </row>
     <row r="16">
@@ -1592,19 +1592,19 @@
         <v>255815</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>227155</v>
+        <v>227189</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>284995</v>
+        <v>284116</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2659747475414544</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2361765399339049</v>
+        <v>0.2362125989856973</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2963147216048047</v>
+        <v>0.295400048088139</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>159</v>
@@ -1613,19 +1613,19 @@
         <v>173215</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>150705</v>
+        <v>152140</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>198152</v>
+        <v>200849</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.178868583246764</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1556233158144111</v>
+        <v>0.1571056419569169</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2046197088312748</v>
+        <v>0.207404314398015</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>388</v>
@@ -1634,19 +1634,19 @@
         <v>429030</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>394375</v>
+        <v>393735</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>469345</v>
+        <v>469825</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2222728990458615</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2043190803698827</v>
+        <v>0.2039873017549198</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2431597839651439</v>
+        <v>0.2434084284921566</v>
       </c>
     </row>
     <row r="17">
@@ -1738,19 +1738,19 @@
         <v>6291</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2637</v>
+        <v>2427</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14296</v>
+        <v>14292</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.009271303485303271</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.003886425908871855</v>
+        <v>0.003576735778111932</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02107020746617826</v>
+        <v>0.02106312677471445</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -1759,19 +1759,19 @@
         <v>14122</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7943</v>
+        <v>8102</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23278</v>
+        <v>23658</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02065117504977291</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.011614967717038</v>
+        <v>0.01184753993520202</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0340401432028969</v>
+        <v>0.03459536513619801</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>20</v>
@@ -1780,19 +1780,19 @@
         <v>20413</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12555</v>
+        <v>12506</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>31154</v>
+        <v>30956</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01498350918953554</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.009215664358189565</v>
+        <v>0.009179627554909867</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02286770311176841</v>
+        <v>0.02272221727110017</v>
       </c>
     </row>
     <row r="19">
@@ -1809,19 +1809,19 @@
         <v>26493</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17338</v>
+        <v>17679</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38494</v>
+        <v>38435</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03904623248142096</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02555258843856835</v>
+        <v>0.02605633409366592</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05673377623370149</v>
+        <v>0.05664589312808363</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -1830,19 +1830,19 @@
         <v>34803</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24385</v>
+        <v>25155</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47304</v>
+        <v>47174</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05089267953473207</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03565825519079655</v>
+        <v>0.03678442593287123</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06917389804721305</v>
+        <v>0.0689841073521356</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>63</v>
@@ -1851,19 +1851,19 @@
         <v>61296</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>47423</v>
+        <v>47920</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>77850</v>
+        <v>77298</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04499263899835278</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03480988990436411</v>
+        <v>0.03517479593146834</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05714424704509004</v>
+        <v>0.05673865647219939</v>
       </c>
     </row>
     <row r="20">
@@ -1880,19 +1880,19 @@
         <v>89713</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>72575</v>
+        <v>72071</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>109491</v>
+        <v>110108</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1322202685264243</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1069622202815144</v>
+        <v>0.1062195812170858</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.161370384087598</v>
+        <v>0.1622798262689748</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>127</v>
@@ -1901,19 +1901,19 @@
         <v>123049</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>104228</v>
+        <v>104427</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>141363</v>
+        <v>143019</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1799386587584798</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.152415637591643</v>
+        <v>0.1527062311567111</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2067198129198312</v>
+        <v>0.209140228143802</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>211</v>
@@ -1922,19 +1922,19 @@
         <v>212762</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>187819</v>
+        <v>186097</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>242255</v>
+        <v>238164</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1561728464914844</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1378637964644919</v>
+        <v>0.1365998200156982</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1778210849935676</v>
+        <v>0.1748183197276605</v>
       </c>
     </row>
     <row r="21">
@@ -1951,19 +1951,19 @@
         <v>98079</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>79308</v>
+        <v>78774</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>116602</v>
+        <v>118598</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1445507659467346</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.116885004548172</v>
+        <v>0.1160980299694941</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1718499539834457</v>
+        <v>0.1747921430237921</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>115</v>
@@ -1972,19 +1972,19 @@
         <v>116040</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>98363</v>
+        <v>98930</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>136690</v>
+        <v>137682</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1696889430586762</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1438396917942057</v>
+        <v>0.1446674769065864</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1998861659262504</v>
+        <v>0.2013359184986181</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>207</v>
@@ -1993,19 +1993,19 @@
         <v>214119</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>189645</v>
+        <v>189062</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>242941</v>
+        <v>241879</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1571690488402926</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1392045757162541</v>
+        <v>0.1387764929261744</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1783252308514603</v>
+        <v>0.1775457276077777</v>
       </c>
     </row>
     <row r="22">
@@ -2022,19 +2022,19 @@
         <v>287135</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>262201</v>
+        <v>262719</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>316288</v>
+        <v>311809</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4231846196885938</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3864370751588677</v>
+        <v>0.3872006084685483</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4661510770882675</v>
+        <v>0.4595505684489419</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>272</v>
@@ -2043,19 +2043,19 @@
         <v>267500</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>245625</v>
+        <v>243665</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>292362</v>
+        <v>292855</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3911728750573877</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3591839884824219</v>
+        <v>0.3563186040171003</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4275295256141147</v>
+        <v>0.4282495201143355</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>547</v>
@@ -2064,19 +2064,19 @@
         <v>554635</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>518484</v>
+        <v>522317</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>590740</v>
+        <v>593191</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4071161017577129</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3805805844593005</v>
+        <v>0.383394053786288</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4336185457754831</v>
+        <v>0.4354173510578593</v>
       </c>
     </row>
     <row r="23">
@@ -2093,19 +2093,19 @@
         <v>170799</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>147843</v>
+        <v>150194</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>192995</v>
+        <v>194690</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2517268098715231</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2178940018180161</v>
+        <v>0.2213581640653711</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2844402372895989</v>
+        <v>0.2869374599740441</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>131</v>
@@ -2114,19 +2114,19 @@
         <v>128327</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>109035</v>
+        <v>109081</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>149854</v>
+        <v>148795</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1876556685409512</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.159444628731079</v>
+        <v>0.1595122314689351</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2191357899468533</v>
+        <v>0.2175872935027456</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>289</v>
@@ -2135,19 +2135,19 @@
         <v>299126</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>268614</v>
+        <v>267319</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>329383</v>
+        <v>329606</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2195658547226218</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1971697205015542</v>
+        <v>0.1962188137606528</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2417756804327642</v>
+        <v>0.2419393073002275</v>
       </c>
     </row>
     <row r="24">
@@ -2239,19 +2239,19 @@
         <v>9007</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17075</v>
+        <v>17488</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009559002077394504</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004166050739746526</v>
+        <v>0.004164834206331338</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01812208838951787</v>
+        <v>0.01856029477062694</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -2260,19 +2260,19 @@
         <v>18287</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11207</v>
+        <v>11024</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28975</v>
+        <v>28657</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01760688177978543</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0107900017469491</v>
+        <v>0.01061395394407159</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02789758440867713</v>
+        <v>0.02759190185140045</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>26</v>
@@ -2281,19 +2281,19 @@
         <v>27293</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>18673</v>
+        <v>18003</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>40175</v>
+        <v>41232</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01377875195946377</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009426650290666468</v>
+        <v>0.009088750491305796</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02028177444055121</v>
+        <v>0.02081532540674189</v>
       </c>
     </row>
     <row r="26">
@@ -2310,19 +2310,19 @@
         <v>34671</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>24615</v>
+        <v>24790</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>47816</v>
+        <v>48179</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03679726875107982</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02612391859771956</v>
+        <v>0.02631057426177201</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05074812871098339</v>
+        <v>0.05113333857960699</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>47</v>
@@ -2331,19 +2331,19 @@
         <v>51147</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>38762</v>
+        <v>38191</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>67792</v>
+        <v>67075</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04924509534471647</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03732079723977941</v>
+        <v>0.03677110067303111</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06527153475672554</v>
+        <v>0.06458170190072415</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>83</v>
@@ -2352,19 +2352,19 @@
         <v>85818</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>70298</v>
+        <v>69807</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>107748</v>
+        <v>104439</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04332404558459934</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03548917237191505</v>
+        <v>0.03524113798150444</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05439505971651454</v>
+        <v>0.05272453148502928</v>
       </c>
     </row>
     <row r="27">
@@ -2381,19 +2381,19 @@
         <v>125456</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>104777</v>
+        <v>105866</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>145388</v>
+        <v>146698</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1331494471376893</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1112018099072339</v>
+        <v>0.1123573509376507</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1543037355177646</v>
+        <v>0.1556933553938947</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>183</v>
@@ -2402,19 +2402,19 @@
         <v>188580</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>164002</v>
+        <v>164157</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>212874</v>
+        <v>214036</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1815691131199599</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1579046107513553</v>
+        <v>0.1580546774340879</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2049602994866036</v>
+        <v>0.2060785698225455</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>316</v>
@@ -2423,19 +2423,19 @@
         <v>314036</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>282816</v>
+        <v>281817</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>346718</v>
+        <v>347096</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1585373613926476</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.142776316312024</v>
+        <v>0.1422720720948489</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1750363501127424</v>
+        <v>0.1752272180616344</v>
       </c>
     </row>
     <row r="28">
@@ -2452,19 +2452,19 @@
         <v>122446</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>102076</v>
+        <v>103731</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>145173</v>
+        <v>145217</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1299543505210434</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1083356161057026</v>
+        <v>0.1100917937181293</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1540753357558714</v>
+        <v>0.1541214957675118</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>170</v>
@@ -2473,19 +2473,19 @@
         <v>176940</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>152070</v>
+        <v>151332</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>200508</v>
+        <v>201995</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1703623844712948</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1464169882882781</v>
+        <v>0.1457056413879563</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1930537276451626</v>
+        <v>0.1944856528911744</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>295</v>
@@ -2494,19 +2494,19 @@
         <v>299386</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>270065</v>
+        <v>267654</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>329653</v>
+        <v>329568</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1511415206579886</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.13633885232173</v>
+        <v>0.1351218368619058</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1664215493790088</v>
+        <v>0.1663783204440168</v>
       </c>
     </row>
     <row r="29">
@@ -2523,19 +2523,19 @@
         <v>374699</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>346014</v>
+        <v>345802</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>406162</v>
+        <v>404057</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3976760581289406</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3672324181638457</v>
+        <v>0.3670072589329342</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.431068520295695</v>
+        <v>0.4288337130395463</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>368</v>
@@ -2544,19 +2544,19 @@
         <v>377920</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>346984</v>
+        <v>347009</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>405665</v>
+        <v>408572</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3638698570735878</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3340845257294448</v>
+        <v>0.334108675504222</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3905838174609178</v>
+        <v>0.3933824759976084</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>762</v>
@@ -2565,19 +2565,19 @@
         <v>752619</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>710221</v>
+        <v>710586</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>793726</v>
+        <v>795923</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3799504312319388</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.358546534036616</v>
+        <v>0.3587307793189031</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4007028142591965</v>
+        <v>0.4018121806314457</v>
       </c>
     </row>
     <row r="30">
@@ -2594,19 +2594,19 @@
         <v>275943</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>251120</v>
+        <v>249438</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>306100</v>
+        <v>305869</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2928638733838524</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2665194577231033</v>
+        <v>0.2647335548730022</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3248701643405644</v>
+        <v>0.3246256589343345</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>211</v>
@@ -2615,19 +2615,19 @@
         <v>225739</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>197716</v>
+        <v>196992</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>251885</v>
+        <v>252582</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2173466682106556</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1903656617844903</v>
+        <v>0.1896686264856651</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2425211864117972</v>
+        <v>0.2431918144714199</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>509</v>
@@ -2636,19 +2636,19 @@
         <v>501682</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>466486</v>
+        <v>459596</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>540658</v>
+        <v>540751</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2532678891733618</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.235499688493393</v>
+        <v>0.2320214802172688</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2729445509707183</v>
+        <v>0.2729914722079952</v>
       </c>
     </row>
     <row r="31">
@@ -2740,19 +2740,19 @@
         <v>23349</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>13953</v>
+        <v>14870</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>35232</v>
+        <v>37005</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.007125978583401765</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.004258363323462191</v>
+        <v>0.004538350560397838</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01075266561161733</v>
+        <v>0.01129383321367042</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>48</v>
@@ -2761,19 +2761,19 @@
         <v>50577</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>38605</v>
+        <v>38015</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>67194</v>
+        <v>65661</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01496702151594532</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01142442884712913</v>
+        <v>0.0112497164617386</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01988474973918998</v>
+        <v>0.01943095169603674</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>69</v>
@@ -2782,19 +2782,19 @@
         <v>73925</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>58068</v>
+        <v>58177</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>93964</v>
+        <v>95977</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01110696772454496</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.00872451568999864</v>
+        <v>0.008740862175213426</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01411770913065671</v>
+        <v>0.01442014065401035</v>
       </c>
     </row>
     <row r="33">
@@ -2811,19 +2811,19 @@
         <v>103004</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>85198</v>
+        <v>82784</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>124269</v>
+        <v>123750</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03143671340055149</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02600225715496302</v>
+        <v>0.0252656848338591</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03792695288505268</v>
+        <v>0.03776847758918906</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>158</v>
@@ -2832,19 +2832,19 @@
         <v>163424</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>138414</v>
+        <v>138217</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>190926</v>
+        <v>192992</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.0483616801363068</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04096050966648065</v>
+        <v>0.04090230624883372</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.05650047435286946</v>
+        <v>0.05711188033095261</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>262</v>
@@ -2853,19 +2853,19 @@
         <v>266427</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>234478</v>
+        <v>238190</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>299951</v>
+        <v>301954</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.04002971682737941</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03522945447172209</v>
+        <v>0.03578719747900415</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.04506653134689534</v>
+        <v>0.04536745885523819</v>
       </c>
     </row>
     <row r="34">
@@ -2882,19 +2882,19 @@
         <v>451664</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>411650</v>
+        <v>415329</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>492363</v>
+        <v>494220</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1378478548390464</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1256354201756668</v>
+        <v>0.1267583526519636</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1502689319074029</v>
+        <v>0.1508357606727964</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>580</v>
@@ -2903,19 +2903,19 @@
         <v>592618</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>549926</v>
+        <v>548951</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>636740</v>
+        <v>638552</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1753724437646857</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1627386572559333</v>
+        <v>0.1624502131744753</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1884292635540717</v>
+        <v>0.1889655802460246</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1025</v>
@@ -2924,19 +2924,19 @@
         <v>1044283</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>982383</v>
+        <v>990147</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1108761</v>
+        <v>1107580</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1568995272152839</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1475994053361298</v>
+        <v>0.1487657935319862</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1665871488043363</v>
+        <v>0.1664096881093218</v>
       </c>
     </row>
     <row r="35">
@@ -2953,19 +2953,19 @@
         <v>418611</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>382967</v>
+        <v>382300</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>457499</v>
+        <v>462606</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1277599536227453</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1168815083087132</v>
+        <v>0.1166777307018285</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1396284365477495</v>
+        <v>0.1411871628656476</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>577</v>
@@ -2974,19 +2974,19 @@
         <v>592990</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>548672</v>
+        <v>544955</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>633963</v>
+        <v>636174</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1754825267551647</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1623676044222727</v>
+        <v>0.1612675307898363</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1876076858124182</v>
+        <v>0.1882620210491936</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>985</v>
@@ -2995,19 +2995,19 @@
         <v>1011601</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>953565</v>
+        <v>956591</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1069547</v>
+        <v>1071838</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1519892617724387</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1432696105476904</v>
+        <v>0.1437242169632176</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1606953842818251</v>
+        <v>0.1610395518055131</v>
       </c>
     </row>
     <row r="36">
@@ -3024,19 +3024,19 @@
         <v>1403354</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1347197</v>
+        <v>1344353</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1458514</v>
+        <v>1457618</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4283031195363797</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4111640853805668</v>
+        <v>0.4102961839506133</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4451379444070053</v>
+        <v>0.4448646923029057</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1324</v>
@@ -3045,19 +3045,19 @@
         <v>1338401</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1284180</v>
+        <v>1279402</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1402919</v>
+        <v>1391492</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3960707503602088</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3800251605799645</v>
+        <v>0.3786111526435967</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4151634183131561</v>
+        <v>0.4117817774986994</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2706</v>
@@ -3066,19 +3066,19 @@
         <v>2741755</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2663014</v>
+        <v>2661134</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2824577</v>
+        <v>2821748</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4119383689811841</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4001078389440024</v>
+        <v>0.3998252847098337</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4243819886151955</v>
+        <v>0.4239569818435952</v>
       </c>
     </row>
     <row r="37">
@@ -3095,19 +3095,19 @@
         <v>876562</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>822372</v>
+        <v>826281</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>925479</v>
+        <v>931566</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2675263800178754</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2509875915472194</v>
+        <v>0.2521808070059174</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2824560296566471</v>
+        <v>0.2843136044598311</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>610</v>
@@ -3116,19 +3116,19 @@
         <v>641188</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>594053</v>
+        <v>597404</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>687440</v>
+        <v>692658</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1897455774676887</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1757971340492674</v>
+        <v>0.1767887899132157</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2034330464932181</v>
+        <v>0.2049771143507155</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1464</v>
@@ -3137,19 +3137,19 @@
         <v>1517750</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1452828</v>
+        <v>1447199</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1591135</v>
+        <v>1583999</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.228036157479169</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2182818924598263</v>
+        <v>0.2174361854082611</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2390620186881495</v>
+        <v>0.2379899028705547</v>
       </c>
     </row>
     <row r="38">
@@ -3481,19 +3481,19 @@
         <v>12464</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6652</v>
+        <v>6383</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23478</v>
+        <v>20920</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01776810010010735</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00948260537295126</v>
+        <v>0.009099200131526606</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03346903090599632</v>
+        <v>0.02982332964872047</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -3502,19 +3502,19 @@
         <v>27360</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18815</v>
+        <v>19222</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41238</v>
+        <v>40611</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0393052441915686</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02702902002836808</v>
+        <v>0.02761417279112792</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05924206954438256</v>
+        <v>0.05834128558246332</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -3523,19 +3523,19 @@
         <v>39824</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27581</v>
+        <v>28226</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>54513</v>
+        <v>54771</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02849527497377478</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01973467344554171</v>
+        <v>0.02019668993849801</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03900532874990553</v>
+        <v>0.03919009440207127</v>
       </c>
     </row>
     <row r="5">
@@ -3552,19 +3552,19 @@
         <v>13033</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7719</v>
+        <v>7473</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22950</v>
+        <v>21441</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01857879235913735</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01100400135340796</v>
+        <v>0.01065334796055191</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03271689873000227</v>
+        <v>0.03056531985802437</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -3573,19 +3573,19 @@
         <v>21462</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13440</v>
+        <v>13831</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33368</v>
+        <v>33641</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03083220553424129</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01930817949013696</v>
+        <v>0.01986933103298123</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04793586421840425</v>
+        <v>0.04832811342934751</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -3594,19 +3594,19 @@
         <v>34495</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23082</v>
+        <v>23822</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>48933</v>
+        <v>48686</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0246819463042676</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01651547631995695</v>
+        <v>0.01704501686427048</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03501283402529792</v>
+        <v>0.03483616728385134</v>
       </c>
     </row>
     <row r="6">
@@ -3623,19 +3623,19 @@
         <v>74935</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>59953</v>
+        <v>60729</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>93118</v>
+        <v>92203</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1068259259054844</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0854669289178627</v>
+        <v>0.08657391665568465</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1327459716799283</v>
+        <v>0.1314418699698284</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>150</v>
@@ -3644,19 +3644,19 @@
         <v>159323</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>138650</v>
+        <v>135571</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>183908</v>
+        <v>181325</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2288796437897975</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1991809632593886</v>
+        <v>0.1947579064352955</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.264198095512215</v>
+        <v>0.2604869303690235</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>225</v>
@@ -3665,19 +3665,19 @@
         <v>234258</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>206376</v>
+        <v>207154</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>263815</v>
+        <v>262009</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1676181818409121</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1476672092975445</v>
+        <v>0.1482243811793781</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1887664911845819</v>
+        <v>0.1874742927085407</v>
       </c>
     </row>
     <row r="7">
@@ -3694,19 +3694,19 @@
         <v>97457</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>80620</v>
+        <v>81212</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>117229</v>
+        <v>117886</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1389318100149077</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1149298819232017</v>
+        <v>0.1157735943915492</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1671180715816179</v>
+        <v>0.1680558601103929</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>107</v>
@@ -3715,19 +3715,19 @@
         <v>116255</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>96392</v>
+        <v>96884</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>136745</v>
+        <v>136709</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.167009123384416</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.138474962148681</v>
+        <v>0.1391816173993834</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1964453578237243</v>
+        <v>0.1963927793793145</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>202</v>
@@ -3736,19 +3736,19 @@
         <v>213712</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>187492</v>
+        <v>188736</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>243504</v>
+        <v>239063</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1529164984777057</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1341555864089934</v>
+        <v>0.1350456456085823</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.174233663191483</v>
+        <v>0.1710557121276247</v>
       </c>
     </row>
     <row r="8">
@@ -3765,19 +3765,19 @@
         <v>243261</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>215959</v>
+        <v>219384</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>269865</v>
+        <v>270205</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3467860954861677</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3078661282186617</v>
+        <v>0.3127484311107564</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3847124282895498</v>
+        <v>0.3851971266119574</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>198</v>
@@ -3786,19 +3786,19 @@
         <v>214171</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>189927</v>
+        <v>189903</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>239769</v>
+        <v>240289</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.307673485926535</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2728444303369449</v>
+        <v>0.2728109016158836</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3444461862846395</v>
+        <v>0.3451936959253443</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>428</v>
@@ -3807,19 +3807,19 @@
         <v>457432</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>419873</v>
+        <v>423288</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>495181</v>
+        <v>495442</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3273049701925871</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3004301914535622</v>
+        <v>0.3028735101133859</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3543150190531333</v>
+        <v>0.354502302370744</v>
       </c>
     </row>
     <row r="9">
@@ -3836,19 +3836,19 @@
         <v>260323</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>236604</v>
+        <v>235191</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>287365</v>
+        <v>286537</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3711092761341956</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3372970792826376</v>
+        <v>0.3352827352113046</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4096599102331249</v>
+        <v>0.408479563846075</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>150</v>
@@ -3857,19 +3857,19 @@
         <v>157527</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>137223</v>
+        <v>136115</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>179166</v>
+        <v>181441</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2263002971734416</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1971316761223303</v>
+        <v>0.1955394570292024</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2573852173102315</v>
+        <v>0.2606542886242991</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>398</v>
@@ -3878,19 +3878,19 @@
         <v>417850</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>382486</v>
+        <v>383939</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>454574</v>
+        <v>454182</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2989831282107528</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2736790507355375</v>
+        <v>0.2747183714593299</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3252596749509066</v>
+        <v>0.3249795675318944</v>
       </c>
     </row>
     <row r="10">
@@ -3982,19 +3982,19 @@
         <v>30308</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20210</v>
+        <v>20679</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>42070</v>
+        <v>43677</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02980653498201683</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01987551451743595</v>
+        <v>0.02033703361807475</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04137466299405074</v>
+        <v>0.04295453390936541</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>42</v>
@@ -4003,19 +4003,19 @@
         <v>48535</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>35288</v>
+        <v>35353</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>64122</v>
+        <v>65629</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04711749274524053</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03425763563436107</v>
+        <v>0.03432041335416927</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06224994770115092</v>
+        <v>0.06371286836080461</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>70</v>
@@ -4024,19 +4024,19 @@
         <v>78843</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>62992</v>
+        <v>61127</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>99703</v>
+        <v>98345</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03851810393860286</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03077462239407616</v>
+        <v>0.02986348969983972</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04870946534750185</v>
+        <v>0.0480460240716362</v>
       </c>
     </row>
     <row r="12">
@@ -4053,19 +4053,19 @@
         <v>34493</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23951</v>
+        <v>23997</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>48595</v>
+        <v>47815</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03392229832741579</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02355487855848433</v>
+        <v>0.02360052005683619</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04779145152479138</v>
+        <v>0.04702412796027465</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>41</v>
@@ -4074,19 +4074,19 @@
         <v>45361</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>33025</v>
+        <v>33917</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>59959</v>
+        <v>60674</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04403655104033363</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03206066956583623</v>
+        <v>0.03292674946482807</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05820830679197615</v>
+        <v>0.05890247083492954</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>72</v>
@@ -4095,19 +4095,19 @@
         <v>79854</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>63672</v>
+        <v>64421</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>99351</v>
+        <v>101015</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03901219636529956</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03110658248011507</v>
+        <v>0.03147251486563339</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04853758869437638</v>
+        <v>0.04935037498091452</v>
       </c>
     </row>
     <row r="13">
@@ -4124,19 +4124,19 @@
         <v>130757</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>110045</v>
+        <v>109479</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>156152</v>
+        <v>158301</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1285945543577383</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.108224783463608</v>
+        <v>0.1076688185762929</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.153569422843218</v>
+        <v>0.1556833571710938</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>179</v>
@@ -4145,19 +4145,19 @@
         <v>195945</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>167645</v>
+        <v>173224</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>220659</v>
+        <v>225480</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1902235166724483</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.162749947840946</v>
+        <v>0.1681656292681766</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2142158835665977</v>
+        <v>0.2188960545197835</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>294</v>
@@ -4166,19 +4166,19 @@
         <v>326702</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>294632</v>
+        <v>291061</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>359556</v>
+        <v>364698</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.159608722508967</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1439408462840356</v>
+        <v>0.1421963529126345</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1756591349492845</v>
+        <v>0.1781710496474893</v>
       </c>
     </row>
     <row r="14">
@@ -4195,19 +4195,19 @@
         <v>114499</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>96281</v>
+        <v>96377</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>136748</v>
+        <v>135120</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1126056750729314</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09468885609370675</v>
+        <v>0.09478341104919681</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.134486885410523</v>
+        <v>0.1328850245429785</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>116</v>
@@ -4216,19 +4216,19 @@
         <v>129615</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>108818</v>
+        <v>108729</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>151861</v>
+        <v>154206</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1258297264156191</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1056401808940083</v>
+        <v>0.1055538926937905</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1474260335739604</v>
+        <v>0.1497031411729515</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>222</v>
@@ -4237,19 +4237,19 @@
         <v>244114</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>212962</v>
+        <v>215291</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>274618</v>
+        <v>274062</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1192605486352712</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1040414083068995</v>
+        <v>0.1051794323394811</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1341631869646752</v>
+        <v>0.1338915470358694</v>
       </c>
     </row>
     <row r="15">
@@ -4266,19 +4266,19 @@
         <v>324902</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>292725</v>
+        <v>295829</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>354363</v>
+        <v>356758</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3195288916120559</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2878840356540441</v>
+        <v>0.2909364717101778</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3485021837466051</v>
+        <v>0.3508584341688745</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>261</v>
@@ -4287,19 +4287,19 @@
         <v>281833</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>252011</v>
+        <v>254817</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>311769</v>
+        <v>311683</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2736025674790346</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2446523218246602</v>
+        <v>0.2473754493750458</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3026647191241219</v>
+        <v>0.3025816351360042</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>561</v>
@@ -4308,19 +4308,19 @@
         <v>606735</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>562698</v>
+        <v>565135</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>652408</v>
+        <v>647617</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2964169214322598</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2749028977263099</v>
+        <v>0.2760937737162206</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3187305334389931</v>
+        <v>0.3163897503688677</v>
       </c>
     </row>
     <row r="16">
@@ -4337,19 +4337,19 @@
         <v>381857</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>349830</v>
+        <v>350863</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>414478</v>
+        <v>412878</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3755420456478418</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3440446944753433</v>
+        <v>0.3450599793131596</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4076229789232398</v>
+        <v>0.4060496041707994</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>299</v>
@@ -4358,19 +4358,19 @@
         <v>328791</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>299441</v>
+        <v>299889</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>360826</v>
+        <v>359356</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.319190145647324</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2906971461396196</v>
+        <v>0.2911312864877093</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3502895761862389</v>
+        <v>0.3488618507852808</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>654</v>
@@ -4379,19 +4379,19 @@
         <v>710649</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>666159</v>
+        <v>664038</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>754506</v>
+        <v>760842</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3471835071195996</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3254486068303597</v>
+        <v>0.3244120532032294</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.368609940245211</v>
+        <v>0.3717054832634511</v>
       </c>
     </row>
     <row r="17">
@@ -4483,19 +4483,19 @@
         <v>15259</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8930</v>
+        <v>8856</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>24398</v>
+        <v>24842</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02014074750160735</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01178666145069281</v>
+        <v>0.01168960604912597</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03220273139933034</v>
+        <v>0.03278907489688352</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -4504,19 +4504,19 @@
         <v>28780</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20165</v>
+        <v>19255</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>40907</v>
+        <v>40805</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0372688909657069</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02611240348234905</v>
+        <v>0.02493413459429156</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05297279184371995</v>
+        <v>0.05284049453365091</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>42</v>
@@ -4525,19 +4525,19 @@
         <v>44039</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>31832</v>
+        <v>32935</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>59523</v>
+        <v>57366</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02878658096213192</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02080703768942715</v>
+        <v>0.02152833404639128</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03890790473398221</v>
+        <v>0.03749768398469819</v>
       </c>
     </row>
     <row r="19">
@@ -4554,19 +4554,19 @@
         <v>18250</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11162</v>
+        <v>11099</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28844</v>
+        <v>28534</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02408848332110562</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01473339360272513</v>
+        <v>0.01465040940750422</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03807197367977889</v>
+        <v>0.03766263176342707</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>38</v>
@@ -4575,19 +4575,19 @@
         <v>40378</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29134</v>
+        <v>29319</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>54621</v>
+        <v>54776</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05228819670678433</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03772717610371024</v>
+        <v>0.03796627147088966</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07073102744181678</v>
+        <v>0.07093256363618511</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>56</v>
@@ -4596,19 +4596,19 @@
         <v>58628</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>45948</v>
+        <v>44453</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>75644</v>
+        <v>75187</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03832295222768195</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03003424030599001</v>
+        <v>0.02905690705273254</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04944521306191547</v>
+        <v>0.04914657847241963</v>
       </c>
     </row>
     <row r="20">
@@ -4625,19 +4625,19 @@
         <v>95143</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>77868</v>
+        <v>79598</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>116199</v>
+        <v>115885</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.125580312394462</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1027798911389666</v>
+        <v>0.1050625301197883</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1533733847959407</v>
+        <v>0.1529583391405911</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>145</v>
@@ -4646,19 +4646,19 @@
         <v>156565</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>135845</v>
+        <v>133328</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>180856</v>
+        <v>180149</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2027448351896603</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1759125776090683</v>
+        <v>0.1726539058202504</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2341995550646914</v>
+        <v>0.2332846366294587</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>232</v>
@@ -4667,19 +4667,19 @@
         <v>251708</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>222591</v>
+        <v>223579</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>283597</v>
+        <v>285189</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1645309210547923</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1454985081371321</v>
+        <v>0.1461440302063064</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1853755056631801</v>
+        <v>0.1864161110754054</v>
       </c>
     </row>
     <row r="21">
@@ -4696,19 +4696,19 @@
         <v>103851</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>84380</v>
+        <v>84669</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>124387</v>
+        <v>124914</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1370749011653321</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1113748826180183</v>
+        <v>0.1117566773978728</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1641800908789441</v>
+        <v>0.1648756648979716</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>85</v>
@@ -4717,19 +4717,19 @@
         <v>89832</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>72381</v>
+        <v>72711</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>109736</v>
+        <v>109569</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1163284945214994</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09373025889522973</v>
+        <v>0.09415678505659993</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.142102861333004</v>
+        <v>0.1418863371330727</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>176</v>
@@ -4738,19 +4738,19 @@
         <v>193683</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>166773</v>
+        <v>165623</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>222314</v>
+        <v>218980</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1266026642224984</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1090124046062893</v>
+        <v>0.1082607723700949</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1453175896318096</v>
+        <v>0.1431382243890177</v>
       </c>
     </row>
     <row r="22">
@@ -4767,19 +4767,19 @@
         <v>188323</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>164906</v>
+        <v>165017</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>215857</v>
+        <v>214627</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2485713577913775</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2176628008337297</v>
+        <v>0.2178089351511749</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2849128752145291</v>
+        <v>0.283290108825238</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>169</v>
@@ -4788,19 +4788,19 @@
         <v>188830</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>162996</v>
+        <v>164037</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>211754</v>
+        <v>214504</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2445259226539903</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2110715947345388</v>
+        <v>0.2124195186821571</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2742111569476155</v>
+        <v>0.2777723256986844</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>338</v>
@@ -4809,19 +4809,19 @@
         <v>377153</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>343610</v>
+        <v>342464</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>416905</v>
+        <v>411271</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2465293292115426</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2246032665562348</v>
+        <v>0.223854065523468</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.27251355397744</v>
+        <v>0.2688307241352005</v>
       </c>
     </row>
     <row r="23">
@@ -4838,19 +4838,19 @@
         <v>336797</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>308656</v>
+        <v>311042</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>366173</v>
+        <v>368423</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4445441978261154</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4074002429507508</v>
+        <v>0.4105503494217423</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4833181778387052</v>
+        <v>0.4862881325084645</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>237</v>
@@ -4859,19 +4859,19 @@
         <v>267843</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>241087</v>
+        <v>241046</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>298693</v>
+        <v>294907</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3468436599623588</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3121957267716283</v>
+        <v>0.3121433095979207</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.386793603646267</v>
+        <v>0.3818899632661154</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>546</v>
@@ -4880,19 +4880,19 @@
         <v>604640</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>561257</v>
+        <v>563406</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>643674</v>
+        <v>642179</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3952275523213528</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3668699040973636</v>
+        <v>0.3682745356547539</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4207424595679287</v>
+        <v>0.4197654719716144</v>
       </c>
     </row>
     <row r="24">
@@ -4987,16 +4987,16 @@
         <v>6142</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19361</v>
+        <v>19926</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01225152725776258</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006480536438840918</v>
+        <v>0.006481043488262186</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02042827912625439</v>
+        <v>0.02102441032988392</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>30</v>
@@ -5005,19 +5005,19 @@
         <v>30954</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21308</v>
+        <v>21231</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>43191</v>
+        <v>42974</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02942683122205078</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02025628771756922</v>
+        <v>0.02018336814866297</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04105980062948786</v>
+        <v>0.04085367033882981</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>42</v>
@@ -5026,19 +5026,19 @@
         <v>42565</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30438</v>
+        <v>31210</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>55844</v>
+        <v>58256</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0212865116159584</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.015221538278564</v>
+        <v>0.01560787366661848</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02792701786775149</v>
+        <v>0.02913323175479422</v>
       </c>
     </row>
     <row r="26">
@@ -5055,19 +5055,19 @@
         <v>34298</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>22956</v>
+        <v>23424</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>49018</v>
+        <v>47781</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03618920158997894</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02422226864997468</v>
+        <v>0.02471519293279093</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0517212424666213</v>
+        <v>0.05041603167681143</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>52</v>
@@ -5076,19 +5076,19 @@
         <v>54580</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>41018</v>
+        <v>41346</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>71695</v>
+        <v>70348</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05188657143000334</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0389943080805437</v>
+        <v>0.0393062559846802</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06815744223480635</v>
+        <v>0.06687677737213826</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>83</v>
@@ -5097,19 +5097,19 @@
         <v>88877</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>70723</v>
+        <v>70955</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>109421</v>
+        <v>108687</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04444672595544731</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03536766895441458</v>
+        <v>0.03548365068510682</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0547204035471651</v>
+        <v>0.05435307308852418</v>
       </c>
     </row>
     <row r="27">
@@ -5126,19 +5126,19 @@
         <v>139308</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>116888</v>
+        <v>117949</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>161180</v>
+        <v>162090</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1469897632217921</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.123333986141731</v>
+        <v>0.1244531617624015</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1700683547100988</v>
+        <v>0.1710283070665492</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>232</v>
@@ -5147,19 +5147,19 @@
         <v>245891</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>219883</v>
+        <v>220123</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>275245</v>
+        <v>276756</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2337583791339006</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2090343959470669</v>
+        <v>0.2092616748180429</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2616647767647491</v>
+        <v>0.2631007131601192</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>364</v>
@@ -5168,19 +5168,19 @@
         <v>385199</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>348733</v>
+        <v>350405</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>420799</v>
+        <v>424139</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.192633967783076</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1743978234160322</v>
+        <v>0.1752339809641122</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2104371565320573</v>
+        <v>0.2121078134925229</v>
       </c>
     </row>
     <row r="28">
@@ -5197,19 +5197,19 @@
         <v>133251</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>112762</v>
+        <v>110532</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>157720</v>
+        <v>154570</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.140598460717108</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1189800144093767</v>
+        <v>0.1166271522745707</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1664170091690804</v>
+        <v>0.1630938521720103</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>129</v>
@@ -5218,19 +5218,19 @@
         <v>132602</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>111995</v>
+        <v>112618</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>155719</v>
+        <v>155738</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1260590708485161</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1064687204005913</v>
+        <v>0.107061268052422</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1480359645550962</v>
+        <v>0.1480539471114456</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>256</v>
@@ -5239,19 +5239,19 @@
         <v>265852</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>238799</v>
+        <v>235631</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>298789</v>
+        <v>297614</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1329500860325274</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1194211515178833</v>
+        <v>0.1178365918695978</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1494214283229345</v>
+        <v>0.148833595753688</v>
       </c>
     </row>
     <row r="29">
@@ -5268,19 +5268,19 @@
         <v>328775</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>299354</v>
+        <v>299076</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>359367</v>
+        <v>358934</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3469041242102732</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3158613103115038</v>
+        <v>0.3155673967177907</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3791836772996425</v>
+        <v>0.3787262186284677</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>326</v>
@@ -5289,19 +5289,19 @@
         <v>341338</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>308866</v>
+        <v>312929</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>371298</v>
+        <v>372992</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3244962654388526</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2936269312987272</v>
+        <v>0.2974894852379532</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3529779646747672</v>
+        <v>0.3545881651465509</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>643</v>
@@ -5310,19 +5310,19 @@
         <v>670113</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>628839</v>
+        <v>630848</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>710883</v>
+        <v>716876</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3351165800758927</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3144761228216599</v>
+        <v>0.3154806867125752</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.355505723294788</v>
+        <v>0.3585027025543381</v>
       </c>
     </row>
     <row r="30">
@@ -5339,19 +5339,19 @@
         <v>300497</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>272588</v>
+        <v>274377</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>328578</v>
+        <v>332705</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3170669230030853</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2876196060363066</v>
+        <v>0.2895071409445146</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3466969113891792</v>
+        <v>0.3510515028340979</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>234</v>
@@ -5360,19 +5360,19 @@
         <v>246537</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>220297</v>
+        <v>219763</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>275306</v>
+        <v>277809</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2343728819266766</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2094278352919468</v>
+        <v>0.2089200854973639</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2617227580495191</v>
+        <v>0.2641015801063872</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>525</v>
@@ -5381,19 +5381,19 @@
         <v>547034</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>507291</v>
+        <v>501217</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>590548</v>
+        <v>585779</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2735661285370981</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2536911670172903</v>
+        <v>0.2506538589968174</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2953272339065653</v>
+        <v>0.2929424108250909</v>
       </c>
     </row>
     <row r="31">
@@ -5485,19 +5485,19 @@
         <v>69642</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>53882</v>
+        <v>54414</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>88828</v>
+        <v>88269</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02034142609753288</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01573817478227367</v>
+        <v>0.01589349599456288</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02594528730354253</v>
+        <v>0.02578224873087208</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>124</v>
@@ -5506,19 +5506,19 @@
         <v>135629</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>113615</v>
+        <v>113978</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>160519</v>
+        <v>159551</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03820212870346484</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0320015212107005</v>
+        <v>0.03210356685984249</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04521272674712869</v>
+        <v>0.0449399969963752</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>190</v>
@@ -5527,19 +5527,19 @@
         <v>205271</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>177846</v>
+        <v>174477</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>237006</v>
+        <v>233383</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02943396793035937</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02550137788153491</v>
+        <v>0.02501833227785132</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03398442200197504</v>
+        <v>0.03346490078842986</v>
       </c>
     </row>
     <row r="33">
@@ -5556,19 +5556,19 @@
         <v>100073</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>80479</v>
+        <v>81978</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>121565</v>
+        <v>122172</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02922995743831166</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02350668343581297</v>
+        <v>0.02394474627378016</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0355073321874058</v>
+        <v>0.03568464959085834</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>150</v>
@@ -5577,19 +5577,19 @@
         <v>161781</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>136164</v>
+        <v>137201</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>187804</v>
+        <v>188235</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.0455682671208991</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.03835275601364334</v>
+        <v>0.03864472287921707</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.05289785816605443</v>
+        <v>0.05301933547052658</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>243</v>
@@ -5598,19 +5598,19 @@
         <v>261855</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>226592</v>
+        <v>229722</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>296581</v>
+        <v>296297</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03754747817331686</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03249120819648193</v>
+        <v>0.03293991500069295</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0425269149988393</v>
+        <v>0.04248626238268709</v>
       </c>
     </row>
     <row r="34">
@@ -5627,19 +5627,19 @@
         <v>440143</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>404730</v>
+        <v>399171</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>486223</v>
+        <v>480843</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1285595388445832</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1182158250045647</v>
+        <v>0.1165921588046564</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1420188662358746</v>
+        <v>0.140447489373908</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>706</v>
@@ -5648,19 +5648,19 @@
         <v>757725</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>709708</v>
+        <v>707968</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>808625</v>
+        <v>807894</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2134249301652848</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1999002258207829</v>
+        <v>0.1994101075309825</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2277617951139836</v>
+        <v>0.2275558927894612</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1115</v>
@@ -5669,19 +5669,19 @@
         <v>1197867</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1132142</v>
+        <v>1129929</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1261576</v>
+        <v>1258800</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1717628851948208</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1623384140328499</v>
+        <v>0.1620211579753996</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1808980457969822</v>
+        <v>0.1805001002613078</v>
       </c>
     </row>
     <row r="35">
@@ -5698,19 +5698,19 @@
         <v>449058</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>409984</v>
+        <v>408953</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>492325</v>
+        <v>494669</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1311634605209419</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1197505367445208</v>
+        <v>0.1194493273816263</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1438010777588943</v>
+        <v>0.144485734527716</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>437</v>
@@ -5719,19 +5719,19 @@
         <v>468304</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>428056</v>
+        <v>431574</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>512526</v>
+        <v>513614</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1319049931107787</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1205686072736887</v>
+        <v>0.1215594442497437</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.144360870610006</v>
+        <v>0.1446674274433987</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>856</v>
@@ -5740,19 +5740,19 @@
         <v>917361</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>863334</v>
+        <v>860096</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>976104</v>
+        <v>979012</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1315409605690787</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1237939888436333</v>
+        <v>0.1233296739001932</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1399640449255634</v>
+        <v>0.1403811044551608</v>
       </c>
     </row>
     <row r="36">
@@ -5769,19 +5769,19 @@
         <v>1085261</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1029886</v>
+        <v>1027623</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1141243</v>
+        <v>1147138</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3169894010338696</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3008150679139969</v>
+        <v>0.3001541644373642</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3333411447515167</v>
+        <v>0.3350629928838088</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>954</v>
@@ -5790,19 +5790,19 @@
         <v>1026172</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>964534</v>
+        <v>972676</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1080046</v>
+        <v>1080109</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2890372935883097</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2716761195792767</v>
+        <v>0.2739692801126272</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3042118320049623</v>
+        <v>0.304229544051221</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1970</v>
@@ -5811,19 +5811,19 @@
         <v>2111433</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2030297</v>
+        <v>2032391</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2193186</v>
+        <v>2190058</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3027595181523304</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2911254230220548</v>
+        <v>0.2914256252335253</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3144821404723294</v>
+        <v>0.3140337004055186</v>
       </c>
     </row>
     <row r="37">
@@ -5840,19 +5840,19 @@
         <v>1279474</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1221142</v>
+        <v>1224690</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1334566</v>
+        <v>1343981</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3737162160647607</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3566784664428202</v>
+        <v>0.3577146534665642</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3898079254231596</v>
+        <v>0.3925579436818536</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>920</v>
@@ -5861,19 +5861,19 @@
         <v>1000699</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>949795</v>
+        <v>944654</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1056620</v>
+        <v>1059758</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2818623873112628</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2675243975783505</v>
+        <v>0.266076616464544</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.297613395865467</v>
+        <v>0.2984972212636514</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2123</v>
@@ -5882,19 +5882,19 @@
         <v>2280172</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2203608</v>
+        <v>2200848</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2362930</v>
+        <v>2357809</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3269551899800939</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3159765208448836</v>
+        <v>0.3155807855835407</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3388219078751257</v>
+        <v>0.3380875323306682</v>
       </c>
     </row>
     <row r="38">
@@ -6226,19 +6226,19 @@
         <v>7694</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3554</v>
+        <v>3808</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14040</v>
+        <v>14025</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01142055384247843</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005275492321312424</v>
+        <v>0.005652564610588108</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02084230090669425</v>
+        <v>0.02081874976294808</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -6247,19 +6247,19 @@
         <v>25885</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16908</v>
+        <v>16867</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37485</v>
+        <v>37839</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0386207887370348</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02522742846040421</v>
+        <v>0.02516593163613472</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0559291266670591</v>
+        <v>0.05645678665093012</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -6268,19 +6268,19 @@
         <v>33578</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23027</v>
+        <v>23613</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45735</v>
+        <v>45962</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02498604154256529</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01713480093627757</v>
+        <v>0.01757069627728818</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0340318899395801</v>
+        <v>0.03420097057746598</v>
       </c>
     </row>
     <row r="5">
@@ -6297,19 +6297,19 @@
         <v>13393</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8188</v>
+        <v>7450</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22502</v>
+        <v>21809</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01988043646066209</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01215480473864981</v>
+        <v>0.01105965964120499</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03340325435220348</v>
+        <v>0.0323735008348606</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -6318,19 +6318,19 @@
         <v>20940</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12643</v>
+        <v>12455</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32619</v>
+        <v>33865</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03124270525367073</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01886410500477868</v>
+        <v>0.0185836353761105</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04866882618580512</v>
+        <v>0.05052711152143786</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>33</v>
@@ -6339,19 +6339,19 @@
         <v>34332</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22950</v>
+        <v>23549</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46839</v>
+        <v>47310</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02554710508150869</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01707723568191736</v>
+        <v>0.01752321380279704</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03485348202173279</v>
+        <v>0.03520401408959573</v>
       </c>
     </row>
     <row r="6">
@@ -6368,19 +6368,19 @@
         <v>81266</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>65215</v>
+        <v>66937</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>99361</v>
+        <v>100587</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1206342222546088</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09680713387900479</v>
+        <v>0.09936372336401142</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1474961453195701</v>
+        <v>0.1493148240391431</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>99</v>
@@ -6389,19 +6389,19 @@
         <v>98862</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>82411</v>
+        <v>81809</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>119580</v>
+        <v>118405</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1475037765642523</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1229590623243784</v>
+        <v>0.1220608636728567</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1784164743987613</v>
+        <v>0.1766632322818277</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>179</v>
@@ -6410,19 +6410,19 @@
         <v>180127</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>157033</v>
+        <v>157668</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>206442</v>
+        <v>203837</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1340347906654071</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.116850031515798</v>
+        <v>0.1173222865658256</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1536157615901507</v>
+        <v>0.1516770197368514</v>
       </c>
     </row>
     <row r="7">
@@ -6439,19 +6439,19 @@
         <v>102374</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>85452</v>
+        <v>84061</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>120721</v>
+        <v>121421</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1519678694537414</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1268482983429351</v>
+        <v>0.1247830155664714</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1792031768150034</v>
+        <v>0.1802426787151327</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>137</v>
@@ -6460,19 +6460,19 @@
         <v>138579</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>117207</v>
+        <v>119129</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>158898</v>
+        <v>161501</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2067626057499162</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1748756571118163</v>
+        <v>0.1777424311135448</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2370789083488309</v>
+        <v>0.2409624672913308</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>239</v>
@@ -6481,19 +6481,19 @@
         <v>240953</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>212775</v>
+        <v>213554</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>267074</v>
+        <v>270414</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1792954761504035</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1583281686603039</v>
+        <v>0.1589077607571003</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1987326731184207</v>
+        <v>0.2012176752082902</v>
       </c>
     </row>
     <row r="8">
@@ -6510,19 +6510,19 @@
         <v>206198</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>182259</v>
+        <v>181984</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>230921</v>
+        <v>230547</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3060891840387021</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2705524300726795</v>
+        <v>0.2701446433998963</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3427888993608749</v>
+        <v>0.3422333030560423</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>180</v>
@@ -6531,19 +6531,19 @@
         <v>180538</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>157002</v>
+        <v>158033</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>203647</v>
+        <v>204304</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2693657986233438</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2342503952124858</v>
+        <v>0.2357886132830125</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3038450086590894</v>
+        <v>0.3048252187601457</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>379</v>
@@ -6552,19 +6552,19 @@
         <v>386736</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>351767</v>
+        <v>352704</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>419450</v>
+        <v>420718</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2877742453961211</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2617537451151176</v>
+        <v>0.2624510836044845</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3121175072539921</v>
+        <v>0.3130604339917321</v>
       </c>
     </row>
     <row r="9">
@@ -6581,19 +6581,19 @@
         <v>262730</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>236363</v>
+        <v>235555</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>285872</v>
+        <v>288711</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3900077339498072</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3508677865270738</v>
+        <v>0.3496669047177166</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4243605832563843</v>
+        <v>0.4285746956043509</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>203</v>
@@ -6602,19 +6602,19 @@
         <v>205429</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>182946</v>
+        <v>183293</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>229295</v>
+        <v>231769</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3065043250717822</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2729598994159511</v>
+        <v>0.2734765547729043</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.342112325544139</v>
+        <v>0.3458048056813335</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>451</v>
@@ -6623,19 +6623,19 @@
         <v>468159</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>433934</v>
+        <v>434388</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>504232</v>
+        <v>506910</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3483623411639943</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3228948452136793</v>
+        <v>0.3232330618564204</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3752047132250586</v>
+        <v>0.3771968312381321</v>
       </c>
     </row>
     <row r="10">
@@ -6727,19 +6727,19 @@
         <v>4879</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1878</v>
+        <v>1890</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10627</v>
+        <v>10869</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.004771607199009098</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001836610380055272</v>
+        <v>0.001848786371093504</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01039342016422649</v>
+        <v>0.01063056310099907</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -6748,19 +6748,19 @@
         <v>16366</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9193</v>
+        <v>10125</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26068</v>
+        <v>27021</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01569246875702396</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.008814727744698292</v>
+        <v>0.009708253603524267</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02499553075992509</v>
+        <v>0.02590876891158938</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>21</v>
@@ -6769,19 +6769,19 @@
         <v>21245</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13859</v>
+        <v>13317</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>33161</v>
+        <v>30580</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01028618905363737</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006710107136128275</v>
+        <v>0.006447774931413799</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0160560791907381</v>
+        <v>0.01480643000874735</v>
       </c>
     </row>
     <row r="12">
@@ -6798,19 +6798,19 @@
         <v>15939</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8976</v>
+        <v>9527</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>25812</v>
+        <v>25078</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01558956726019769</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.008779262954843069</v>
+        <v>0.009317785296557963</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02524547705458162</v>
+        <v>0.02452805875451012</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>31</v>
@@ -6819,19 +6819,19 @@
         <v>33814</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>23321</v>
+        <v>22969</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>47137</v>
+        <v>47019</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03242233319908584</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02236180988166555</v>
+        <v>0.02202394225859668</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04519762707966726</v>
+        <v>0.04508389377528299</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>46</v>
@@ -6840,19 +6840,19 @@
         <v>49753</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>37247</v>
+        <v>36396</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>66384</v>
+        <v>65105</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02408941547424929</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01803449929036833</v>
+        <v>0.01762215766267612</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03214177380658588</v>
+        <v>0.031522696434985</v>
       </c>
     </row>
     <row r="13">
@@ -6869,19 +6869,19 @@
         <v>90827</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72659</v>
+        <v>73331</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>111831</v>
+        <v>110598</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08883404221217885</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07106486559628089</v>
+        <v>0.07172183169532302</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.109377565961885</v>
+        <v>0.1081715924935058</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>118</v>
@@ -6890,19 +6890,19 @@
         <v>125779</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>104033</v>
+        <v>104398</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>146657</v>
+        <v>147223</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1206031948352693</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09975279719476889</v>
+        <v>0.1001021111259417</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1406221332485892</v>
+        <v>0.1411649686228218</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>200</v>
@@ -6911,19 +6911,19 @@
         <v>216605</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>189358</v>
+        <v>189861</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>244908</v>
+        <v>246120</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1048761458192551</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09168339802389325</v>
+        <v>0.09192700885450265</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.11857994667008</v>
+        <v>0.1191666518752036</v>
       </c>
     </row>
     <row r="14">
@@ -6940,19 +6940,19 @@
         <v>162788</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>139623</v>
+        <v>140237</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>188396</v>
+        <v>185290</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1592168579689339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1365596540424093</v>
+        <v>0.1371599344745925</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1842627555411761</v>
+        <v>0.1812251442794373</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>171</v>
@@ -6961,19 +6961,19 @@
         <v>186396</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>159433</v>
+        <v>161717</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>212299</v>
+        <v>211842</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1787259253588683</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1528729494392907</v>
+        <v>0.1550631816135312</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2035633124286195</v>
+        <v>0.2031255703267306</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>327</v>
@@ -6982,19 +6982,19 @@
         <v>349184</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>314117</v>
+        <v>317266</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>386422</v>
+        <v>385097</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.169068127345231</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1520895572840517</v>
+        <v>0.1536140667451062</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1870980971571486</v>
+        <v>0.1864566141461288</v>
       </c>
     </row>
     <row r="15">
@@ -7011,19 +7011,19 @@
         <v>342007</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>313237</v>
+        <v>313800</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>374678</v>
+        <v>374832</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3345032968966901</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3063646005120347</v>
+        <v>0.3069156387519767</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3664582669472456</v>
+        <v>0.3666082315196152</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>341</v>
@@ -7032,19 +7032,19 @@
         <v>361395</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>330526</v>
+        <v>333266</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>393133</v>
+        <v>393095</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3465245797669122</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3169255541751241</v>
+        <v>0.3195531716092597</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3769565373624753</v>
+        <v>0.3769205208305459</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>662</v>
@@ -7053,19 +7053,19 @@
         <v>703402</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>657988</v>
+        <v>655925</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>743199</v>
+        <v>747421</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3405735458448446</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3185850188679551</v>
+        <v>0.3175861488339546</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3598428616444692</v>
+        <v>0.3618870129446206</v>
       </c>
     </row>
     <row r="16">
@@ -7082,19 +7082,19 @@
         <v>405992</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>373540</v>
+        <v>374181</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>436390</v>
+        <v>440080</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3970846284629904</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.365344784586989</v>
+        <v>0.3659717298316033</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4268161531079758</v>
+        <v>0.4304255495578586</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>300</v>
@@ -7103,19 +7103,19 @@
         <v>319164</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>290930</v>
+        <v>288684</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>351006</v>
+        <v>350276</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3060314980828404</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2789586856369762</v>
+        <v>0.2768054786843157</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3365627774301013</v>
+        <v>0.3358630818053706</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>672</v>
@@ -7124,19 +7124,19 @@
         <v>725156</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>680460</v>
+        <v>682455</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>765067</v>
+        <v>767068</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3511065764627826</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3294657234013052</v>
+        <v>0.3304314515280004</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3704306947782066</v>
+        <v>0.3713994231565061</v>
       </c>
     </row>
     <row r="17">
@@ -7228,19 +7228,19 @@
         <v>16323</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8956</v>
+        <v>9104</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>27238</v>
+        <v>26450</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02148977799305084</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01179097435814485</v>
+        <v>0.01198635798406482</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03586059365522946</v>
+        <v>0.03482298854031986</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -7249,19 +7249,19 @@
         <v>11688</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6001</v>
+        <v>5461</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>20829</v>
+        <v>21731</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01493558104759563</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.007668184946983007</v>
+        <v>0.006978602863184832</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02661549259846975</v>
+        <v>0.02776928483155668</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>24</v>
@@ -7270,19 +7270,19 @@
         <v>28011</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>18608</v>
+        <v>19030</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>41033</v>
+        <v>41182</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01816376325197029</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01206625751589699</v>
+        <v>0.01233992262269312</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02660808316517327</v>
+        <v>0.02670468073139965</v>
       </c>
     </row>
     <row r="19">
@@ -7299,19 +7299,19 @@
         <v>12141</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6134</v>
+        <v>6833</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21207</v>
+        <v>21412</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01598425356418423</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008076145974040194</v>
+        <v>0.00899585996263942</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02792016985612438</v>
+        <v>0.02819071935552139</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -7320,19 +7320,19 @@
         <v>26484</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17687</v>
+        <v>17707</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38930</v>
+        <v>37897</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0338428130571268</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02260061912501091</v>
+        <v>0.02262661228003359</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04974580160927249</v>
+        <v>0.04842605144166595</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -7341,19 +7341,19 @@
         <v>38625</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26746</v>
+        <v>26828</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>52644</v>
+        <v>52812</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02504681799767727</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01734358149185335</v>
+        <v>0.01739681186129121</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03413741458545829</v>
+        <v>0.03424605557091325</v>
       </c>
     </row>
     <row r="20">
@@ -7370,19 +7370,19 @@
         <v>67229</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>52431</v>
+        <v>53706</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>85483</v>
+        <v>85575</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08851200414018325</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06902915394604461</v>
+        <v>0.07070695755118593</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.112543450809407</v>
+        <v>0.112665119368531</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>94</v>
@@ -7391,19 +7391,19 @@
         <v>103397</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>83682</v>
+        <v>84960</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>124556</v>
+        <v>122703</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.132125168386186</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1069315164801378</v>
+        <v>0.1085655700986029</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1591622106217275</v>
+        <v>0.1567947486519017</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>156</v>
@@ -7412,19 +7412,19 @@
         <v>170627</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>147601</v>
+        <v>145938</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>195523</v>
+        <v>197232</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1106440865897285</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09571270379014948</v>
+        <v>0.09463419615221882</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1267882425865264</v>
+        <v>0.1278960224666994</v>
       </c>
     </row>
     <row r="21">
@@ -7441,19 +7441,19 @@
         <v>76081</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>59558</v>
+        <v>60989</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>92269</v>
+        <v>93033</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1001651021861524</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07841159980976344</v>
+        <v>0.08029617521653044</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1214781386139551</v>
+        <v>0.1224842990605257</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>81</v>
@@ -7462,19 +7462,19 @@
         <v>86797</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>71045</v>
+        <v>69455</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>106686</v>
+        <v>106509</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1109122497879287</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09078472590553595</v>
+        <v>0.08875289357559629</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1363271168074381</v>
+        <v>0.136100977516137</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>154</v>
@@ -7483,19 +7483,19 @@
         <v>162877</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>138743</v>
+        <v>139595</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>188657</v>
+        <v>190538</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1056188857153249</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08996862334558287</v>
+        <v>0.09052132481334065</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1223357329432186</v>
+        <v>0.1235555344661865</v>
       </c>
     </row>
     <row r="22">
@@ -7512,19 +7512,19 @@
         <v>220019</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>194642</v>
+        <v>196229</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>248514</v>
+        <v>246654</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2896700052480725</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2562583830239497</v>
+        <v>0.2583485773920999</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.327184550833</v>
+        <v>0.3247357152064486</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>200</v>
@@ -7533,19 +7533,19 @@
         <v>215762</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>193852</v>
+        <v>190192</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>240998</v>
+        <v>243075</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2757089021672816</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.24771226924746</v>
+        <v>0.2430352605532389</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3079564207384381</v>
+        <v>0.3106102599076616</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>399</v>
@@ -7554,19 +7554,19 @@
         <v>435782</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>396452</v>
+        <v>399395</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>472075</v>
+        <v>476721</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2825852571035032</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2570815966332844</v>
+        <v>0.2589903184112535</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3061200983110737</v>
+        <v>0.3091330202030994</v>
       </c>
     </row>
     <row r="23">
@@ -7583,19 +7583,19 @@
         <v>367759</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>338488</v>
+        <v>338309</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>395371</v>
+        <v>393409</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4841788568683568</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4456414236620867</v>
+        <v>0.4454058959029873</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5205320811812588</v>
+        <v>0.517949073630386</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>324</v>
@@ -7604,19 +7604,19 @@
         <v>338443</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>312220</v>
+        <v>309026</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>368355</v>
+        <v>368164</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4324752855538813</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3989674629841922</v>
+        <v>0.3948858008259069</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4706986368761402</v>
+        <v>0.4704544036062974</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>661</v>
@@ -7625,19 +7625,19 @@
         <v>706202</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>666598</v>
+        <v>665047</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>746776</v>
+        <v>746332</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4579411893417958</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4322597837415108</v>
+        <v>0.4312539331275224</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4842515447783783</v>
+        <v>0.4839636142244735</v>
       </c>
     </row>
     <row r="24">
@@ -7729,19 +7729,19 @@
         <v>10291</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5333</v>
+        <v>5218</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18719</v>
+        <v>18179</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01098778430261768</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005694305927076391</v>
+        <v>0.005572038667423391</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01998739778291042</v>
+        <v>0.01941117706117362</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>21</v>
@@ -7750,19 +7750,19 @@
         <v>23507</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14907</v>
+        <v>15005</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35805</v>
+        <v>35901</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02254392858546499</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01429645582513782</v>
+        <v>0.01439027925726941</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03433878574858303</v>
+        <v>0.03443047424670029</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>31</v>
@@ -7771,19 +7771,19 @@
         <v>33797</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>23412</v>
+        <v>22881</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>47909</v>
+        <v>46679</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0170757938360278</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01182891799825258</v>
+        <v>0.01156020073171805</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0242057279804591</v>
+        <v>0.02358438419554786</v>
       </c>
     </row>
     <row r="26">
@@ -7800,19 +7800,19 @@
         <v>17405</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10642</v>
+        <v>10507</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>28750</v>
+        <v>28696</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0185839918360342</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01136287742455675</v>
+        <v>0.01121842281668158</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03069806764994931</v>
+        <v>0.03064056809590841</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>30</v>
@@ -7821,19 +7821,19 @@
         <v>35526</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>24083</v>
+        <v>23600</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>49099</v>
+        <v>49492</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03407084929296841</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02309686988625767</v>
+        <v>0.02263328854608395</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04708752801559837</v>
+        <v>0.04746506382657982</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>46</v>
@@ -7842,19 +7842,19 @@
         <v>52931</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>39529</v>
+        <v>39112</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>70548</v>
+        <v>70877</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02674278022883095</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01997184122502486</v>
+        <v>0.01976125498249983</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03564380736959972</v>
+        <v>0.03580981271824656</v>
       </c>
     </row>
     <row r="27">
@@ -7871,19 +7871,19 @@
         <v>96805</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>81111</v>
+        <v>79567</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>116563</v>
+        <v>116085</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1033648688030475</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08660743341563673</v>
+        <v>0.08495804327351529</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1244611453224017</v>
+        <v>0.1239507591244943</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>129</v>
@@ -7892,19 +7892,19 @@
         <v>143753</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>123328</v>
+        <v>120327</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>170859</v>
+        <v>168896</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1378652546822287</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1182769696898322</v>
+        <v>0.1153979833697296</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1638606704475011</v>
+        <v>0.1619781255112663</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>228</v>
@@ -7913,19 +7913,19 @@
         <v>240559</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>207557</v>
+        <v>213728</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>270100</v>
+        <v>271564</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1215403668755786</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1048663141364189</v>
+        <v>0.1079841238704951</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1364658376038096</v>
+        <v>0.1372055593962353</v>
       </c>
     </row>
     <row r="28">
@@ -7942,19 +7942,19 @@
         <v>189585</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>165732</v>
+        <v>164491</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>214552</v>
+        <v>214799</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2024313302271563</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1769614093733276</v>
+        <v>0.1756367040670391</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.229089846368249</v>
+        <v>0.2293530640506211</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>210</v>
@@ -7963,19 +7963,19 @@
         <v>225852</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>197606</v>
+        <v>197001</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>250640</v>
+        <v>251819</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2166013781806643</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1895121176874668</v>
+        <v>0.1889322916735391</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2403741060960431</v>
+        <v>0.2415045154514147</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>402</v>
@@ -7984,19 +7984,19 @@
         <v>415437</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>379235</v>
+        <v>378800</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>451583</v>
+        <v>457925</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2098963968547755</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1916054621535211</v>
+        <v>0.1913853866603814</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2281588768060384</v>
+        <v>0.2313631327108901</v>
       </c>
     </row>
     <row r="29">
@@ -8013,19 +8013,19 @@
         <v>344544</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>317638</v>
+        <v>315006</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>374546</v>
+        <v>373571</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3678894834569048</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.339160575228512</v>
+        <v>0.3363508796944578</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3999244813503325</v>
+        <v>0.3988832375411966</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>300</v>
@@ -8034,19 +8034,19 @@
         <v>328335</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>300350</v>
+        <v>295032</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>361444</v>
+        <v>359803</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3148860852498662</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2880475604516168</v>
+        <v>0.2829475791794391</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3466395157258876</v>
+        <v>0.3450653620333338</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>643</v>
@@ -8055,19 +8055,19 @@
         <v>672878</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>632105</v>
+        <v>630512</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>716794</v>
+        <v>720891</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3399662258642714</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3193661402720061</v>
+        <v>0.3185609882587344</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3621543927572511</v>
+        <v>0.3642244763263087</v>
       </c>
     </row>
     <row r="30">
@@ -8084,19 +8084,19 @@
         <v>277912</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>249220</v>
+        <v>249265</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>308082</v>
+        <v>306780</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2967425413742394</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2661064209408386</v>
+        <v>0.2661553272057832</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3289576397469251</v>
+        <v>0.3275669011198138</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>268</v>
@@ -8105,19 +8105,19 @@
         <v>285736</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>256979</v>
+        <v>254883</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>317129</v>
+        <v>315933</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2740325040088074</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2464536080988981</v>
+        <v>0.2444428915068811</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3041398214327219</v>
+        <v>0.3029924877821473</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>539</v>
@@ -8126,19 +8126,19 @@
         <v>563648</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>522399</v>
+        <v>523658</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>603940</v>
+        <v>602308</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2847784363405158</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2639379120064677</v>
+        <v>0.2645740216966229</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3051356424496565</v>
+        <v>0.3043111676440907</v>
       </c>
     </row>
     <row r="31">
@@ -8230,19 +8230,19 @@
         <v>39185</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>28025</v>
+        <v>27996</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>51841</v>
+        <v>53805</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01155165168803625</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.008261552335576398</v>
+        <v>0.008252991502955267</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01528238314826154</v>
+        <v>0.01586158181197689</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>72</v>
@@ -8251,19 +8251,19 @@
         <v>77446</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>62168</v>
+        <v>59077</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>95816</v>
+        <v>95569</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02188704836064011</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01756932559751569</v>
+        <v>0.0166957882814355</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02707867873652169</v>
+        <v>0.02700891562720778</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>109</v>
@@ -8272,19 +8272,19 @@
         <v>116631</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>96921</v>
+        <v>96705</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>141107</v>
+        <v>139299</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01682839644051986</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01398451695731099</v>
+        <v>0.01395326290929804</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0203600159036657</v>
+        <v>0.02009916792836908</v>
       </c>
     </row>
     <row r="33">
@@ -8301,19 +8301,19 @@
         <v>58877</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>43475</v>
+        <v>46152</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>77427</v>
+        <v>76626</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01735679395911573</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01281628565452324</v>
+        <v>0.01360550055633974</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02282527075022626</v>
+        <v>0.02258896127643235</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>105</v>
@@ -8322,19 +8322,19 @@
         <v>116764</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>98364</v>
+        <v>93718</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>139623</v>
+        <v>138507</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.03299883951451467</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.02779894635172355</v>
+        <v>0.0264858873403185</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.03945914928584835</v>
+        <v>0.03914373384370674</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>161</v>
@@ -8343,19 +8343,19 @@
         <v>175641</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>148170</v>
+        <v>150621</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>202299</v>
+        <v>204460</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.02534285239665476</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02137913635752798</v>
+        <v>0.02173273203229124</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02918925507789338</v>
+        <v>0.02950104935028822</v>
       </c>
     </row>
     <row r="34">
@@ -8372,19 +8372,19 @@
         <v>336127</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>298892</v>
+        <v>301134</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>369736</v>
+        <v>368540</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.09908893684464552</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08811201580108398</v>
+        <v>0.08877297846872444</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1089964756238003</v>
+        <v>0.1086441330866245</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>440</v>
@@ -8393,19 +8393,19 @@
         <v>471791</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>429529</v>
+        <v>434528</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>515168</v>
+        <v>515931</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.133333632762935</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1213899531510527</v>
+        <v>0.1228025246649966</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1455924558441047</v>
+        <v>0.1458082324935398</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>763</v>
@@ -8414,19 +8414,19 @@
         <v>807918</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>753469</v>
+        <v>752023</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>864975</v>
+        <v>860022</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1165725927904512</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1087162411910867</v>
+        <v>0.1085075017729833</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1248051826396787</v>
+        <v>0.1240904806055026</v>
       </c>
     </row>
     <row r="35">
@@ -8443,19 +8443,19 @@
         <v>530828</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>493666</v>
+        <v>490274</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>578265</v>
+        <v>572366</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1564858496665637</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1455307825656415</v>
+        <v>0.1445307680854405</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1704701919089225</v>
+        <v>0.1687310456015838</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>599</v>
@@ -8464,19 +8464,19 @@
         <v>637623</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>594132</v>
+        <v>595063</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>689246</v>
+        <v>684416</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1801997814777118</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1679085024744055</v>
+        <v>0.1681716347458336</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1947889263466838</v>
+        <v>0.193423987816168</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1122</v>
@@ -8485,19 +8485,19 @@
         <v>1168451</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1106623</v>
+        <v>1107957</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1232785</v>
+        <v>1228451</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1685930158653144</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1596719987857213</v>
+        <v>0.1598643752436816</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1778755543248157</v>
+        <v>0.1772502369865202</v>
       </c>
     </row>
     <row r="36">
@@ -8514,19 +8514,19 @@
         <v>1112768</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1059750</v>
+        <v>1060255</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1169088</v>
+        <v>1172661</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3280393190008529</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3124099246098351</v>
+        <v>0.3125587773059473</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.344642081526314</v>
+        <v>0.3456955497239843</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1021</v>
@@ -8535,19 +8535,19 @@
         <v>1086029</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1029183</v>
+        <v>1032575</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1138419</v>
+        <v>1143647</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.30692438070011</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2908590334235652</v>
+        <v>0.2918177794535716</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.321730407112989</v>
+        <v>0.3232078667213198</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2083</v>
@@ -8556,19 +8556,19 @@
         <v>2198797</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2120652</v>
+        <v>2117073</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2287788</v>
+        <v>2272520</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3172590709458559</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3059837614532233</v>
+        <v>0.3054673506996347</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3300993663276788</v>
+        <v>0.3278964419006875</v>
       </c>
     </row>
     <row r="37">
@@ -8585,19 +8585,19 @@
         <v>1314393</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1258791</v>
+        <v>1257413</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1369506</v>
+        <v>1371288</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3874774488407859</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3710863314792908</v>
+        <v>0.3706799473265238</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4037247076943587</v>
+        <v>0.4042500022224987</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1095</v>
@@ -8606,19 +8606,19 @@
         <v>1148772</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1089743</v>
+        <v>1089856</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1205892</v>
+        <v>1204958</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3246563171840883</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3079739985413888</v>
+        <v>0.3080059241202034</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3407990986726868</v>
+        <v>0.3405350032615513</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2323</v>
@@ -8627,19 +8627,19 @@
         <v>2463165</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2377195</v>
+        <v>2379500</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2547109</v>
+        <v>2542566</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3554040715612038</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3429996898107588</v>
+        <v>0.3433323381227867</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3675161112860793</v>
+        <v>0.3668606336851876</v>
       </c>
     </row>
     <row r="38">
@@ -8974,16 +8974,16 @@
         <v>2078</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10881</v>
+        <v>11090</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007807678263343765</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003012473275361529</v>
+        <v>0.003012186137680791</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01577347162200433</v>
+        <v>0.01607670918445701</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -8992,19 +8992,19 @@
         <v>9991</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6061</v>
+        <v>5898</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15280</v>
+        <v>15140</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.01362831576610636</v>
+        <v>0.01362831576610635</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008267919456022907</v>
+        <v>0.008045619975991101</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02084264549688866</v>
+        <v>0.02065116120630162</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -9013,19 +9013,19 @@
         <v>15377</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10077</v>
+        <v>10736</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22443</v>
+        <v>24424</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.01080649699279066</v>
+        <v>0.01080649699279067</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007081385640544556</v>
+        <v>0.00754492145242235</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01577188025270528</v>
+        <v>0.01716416432334523</v>
       </c>
     </row>
     <row r="5">
@@ -9042,19 +9042,19 @@
         <v>21884</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13436</v>
+        <v>13714</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34208</v>
+        <v>32754</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03172295055879563</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0194767301774469</v>
+        <v>0.01988009664187404</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04958818700958059</v>
+        <v>0.04748063685058901</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -9063,19 +9063,19 @@
         <v>28497</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20247</v>
+        <v>21412</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>39246</v>
+        <v>39524</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03887118451598572</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02761744388836563</v>
+        <v>0.0292070558795643</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05353335765595109</v>
+        <v>0.05391252457799788</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>76</v>
@@ -9084,19 +9084,19 @@
         <v>50381</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>40019</v>
+        <v>39376</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>66886</v>
+        <v>67027</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.03540575297745095</v>
+        <v>0.03540575297745096</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02812410617789667</v>
+        <v>0.02767188247165764</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0470050153811066</v>
+        <v>0.04710419180719601</v>
       </c>
     </row>
     <row r="6">
@@ -9113,19 +9113,19 @@
         <v>81098</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>65426</v>
+        <v>67524</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>99035</v>
+        <v>98061</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1175601131393191</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09484132344604707</v>
+        <v>0.09788367267977395</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1435618046434239</v>
+        <v>0.1421492045496434</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>217</v>
@@ -9134,19 +9134,19 @@
         <v>107806</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>95162</v>
+        <v>94390</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>123723</v>
+        <v>123045</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1470530013043985</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1298056748330488</v>
+        <v>0.1287522678997909</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1687644146856345</v>
+        <v>0.1678393883576287</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>326</v>
@@ -9155,19 +9155,19 @@
         <v>188904</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>169022</v>
+        <v>168436</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>211070</v>
+        <v>211784</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1327549823221097</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1187821938830439</v>
+        <v>0.1183708396176755</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1483317902097155</v>
+        <v>0.1488335792938547</v>
       </c>
     </row>
     <row r="7">
@@ -9184,19 +9184,19 @@
         <v>88951</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>72857</v>
+        <v>72436</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>106584</v>
+        <v>106404</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1289443535197671</v>
+        <v>0.128944353519767</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1056138146795872</v>
+        <v>0.1050030086549432</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1545045976144694</v>
+        <v>0.1542439493322833</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>199</v>
@@ -9205,19 +9205,19 @@
         <v>107074</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>92683</v>
+        <v>93061</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>124449</v>
+        <v>124518</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1460541894814069</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1264243938782073</v>
+        <v>0.126939960375987</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1697535748181963</v>
+        <v>0.1698488242493071</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>308</v>
@@ -9226,19 +9226,19 @@
         <v>196026</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>173306</v>
+        <v>174741</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>220199</v>
+        <v>217319</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1377594182811746</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1217929367916963</v>
+        <v>0.1228016095349275</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1547475222124012</v>
+        <v>0.152723369084299</v>
       </c>
     </row>
     <row r="8">
@@ -9255,19 +9255,19 @@
         <v>188968</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>165855</v>
+        <v>167426</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>215635</v>
+        <v>214714</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2739287898907034</v>
+        <v>0.2739287898907033</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2404239403635299</v>
+        <v>0.2427022627589273</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.312585261482041</v>
+        <v>0.3112504791267966</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>362</v>
@@ -9276,19 +9276,19 @@
         <v>207350</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>189143</v>
+        <v>187014</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>228592</v>
+        <v>227191</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2828355103860843</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2580000300533414</v>
+        <v>0.2550959447184862</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.311810603012899</v>
+        <v>0.3098995809123391</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>566</v>
@@ -9297,19 +9297,19 @@
         <v>396318</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>367089</v>
+        <v>364481</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>429642</v>
+        <v>427166</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2785175725157715</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2579760394699026</v>
+        <v>0.2561436931993157</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3019362131679296</v>
+        <v>0.300196543060245</v>
       </c>
     </row>
     <row r="9">
@@ -9326,19 +9326,19 @@
         <v>303556</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>274420</v>
+        <v>275945</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>334543</v>
+        <v>333368</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4400361146280712</v>
+        <v>0.4400361146280711</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.397801214431208</v>
+        <v>0.4000114476906627</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.484954728537369</v>
+        <v>0.4832513521421494</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>386</v>
@@ -9347,19 +9347,19 @@
         <v>272394</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>251941</v>
+        <v>249081</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>294854</v>
+        <v>296233</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3715577985460183</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3436587964989709</v>
+        <v>0.3397573902752946</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4021944305907456</v>
+        <v>0.4040750728268552</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>664</v>
@@ -9368,19 +9368,19 @@
         <v>575950</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>539211</v>
+        <v>540083</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>613599</v>
+        <v>615847</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4047557769107026</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3789373910851099</v>
+        <v>0.3795500551849667</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4312140600705855</v>
+        <v>0.4327939136922209</v>
       </c>
     </row>
     <row r="10">
@@ -9472,19 +9472,19 @@
         <v>10887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5552</v>
+        <v>5884</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19565</v>
+        <v>20236</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01037887096767654</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005292828536197585</v>
+        <v>0.00560923151548233</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01865276559297749</v>
+        <v>0.01929207783810368</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>28</v>
@@ -9493,19 +9493,19 @@
         <v>18684</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12611</v>
+        <v>12287</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27459</v>
+        <v>27526</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01745570062756086</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01178185957755448</v>
+        <v>0.01147945958995263</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02565411426488134</v>
+        <v>0.02571658634858321</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>40</v>
@@ -9514,19 +9514,19 @@
         <v>29571</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>21200</v>
+        <v>20134</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>41187</v>
+        <v>41365</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01395310795189005</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01000345506141548</v>
+        <v>0.009500301007446562</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01943452234452864</v>
+        <v>0.01951826714288514</v>
       </c>
     </row>
     <row r="12">
@@ -9543,19 +9543,19 @@
         <v>22477</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13814</v>
+        <v>14660</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>33434</v>
+        <v>33609</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02142896061048497</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01316988129079955</v>
+        <v>0.01397669245652173</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03187510174195515</v>
+        <v>0.03204203957500917</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>76</v>
@@ -9564,19 +9564,19 @@
         <v>51261</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>39924</v>
+        <v>39419</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>66829</v>
+        <v>65107</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04789085356783045</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03729923574222143</v>
+        <v>0.03682754653693602</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06243515412638176</v>
+        <v>0.06082659263895856</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>100</v>
@@ -9585,19 +9585,19 @@
         <v>73738</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>59589</v>
+        <v>59554</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>94309</v>
+        <v>92523</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03479385435896461</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02811731507263202</v>
+        <v>0.02810069440188898</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04450016893544991</v>
+        <v>0.04365734346473613</v>
       </c>
     </row>
     <row r="13">
@@ -9614,19 +9614,19 @@
         <v>87754</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71661</v>
+        <v>72125</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>107779</v>
+        <v>105984</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08366158887224871</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06831935696664743</v>
+        <v>0.0687612018806007</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1027526038710485</v>
+        <v>0.1010410328579794</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>238</v>
@@ -9635,19 +9635,19 @@
         <v>141082</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>124237</v>
+        <v>124662</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>158377</v>
+        <v>160870</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1318061749197023</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1160689438971162</v>
+        <v>0.1164664176013978</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1479641355482589</v>
+        <v>0.1502939824403034</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>340</v>
@@ -9656,19 +9656,19 @@
         <v>228836</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>204719</v>
+        <v>203346</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>254455</v>
+        <v>254772</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.107977584637402</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09659770888982809</v>
+        <v>0.09595028202680261</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1200662150052551</v>
+        <v>0.1202159324920109</v>
       </c>
     </row>
     <row r="14">
@@ -9685,19 +9685,19 @@
         <v>148565</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>126994</v>
+        <v>126890</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>172443</v>
+        <v>175032</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1416361255325115</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1210711414261294</v>
+        <v>0.1209728128789425</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1644014469845669</v>
+        <v>0.166869339899256</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>273</v>
@@ -9706,19 +9706,19 @@
         <v>172444</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>153588</v>
+        <v>151985</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>194171</v>
+        <v>193745</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.161107025416079</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.143490267025354</v>
+        <v>0.1419924767684159</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1814048107436327</v>
+        <v>0.181007363780857</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>426</v>
@@ -9727,19 +9727,19 @@
         <v>321009</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>290286</v>
+        <v>290820</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>353020</v>
+        <v>352719</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1514701350854422</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1369732621079788</v>
+        <v>0.1372253884869875</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1665746984981734</v>
+        <v>0.166432752779884</v>
       </c>
     </row>
     <row r="15">
@@ -9756,19 +9756,19 @@
         <v>301950</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>273417</v>
+        <v>270834</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>338514</v>
+        <v>334840</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2878680580286999</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2606660767690532</v>
+        <v>0.2582036934309038</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3227269789003745</v>
+        <v>0.3192246683332275</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>431</v>
@@ -9777,19 +9777,19 @@
         <v>300322</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>274952</v>
+        <v>273928</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>327191</v>
+        <v>326923</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2805776729327946</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2568753250062772</v>
+        <v>0.255918549087801</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3056794075592668</v>
+        <v>0.3054297297082632</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>716</v>
@@ -9798,19 +9798,19 @@
         <v>602272</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>562485</v>
+        <v>561853</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>647591</v>
+        <v>643753</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2841859623317166</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.26541189394022</v>
+        <v>0.2651140128593896</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3055696649494751</v>
+        <v>0.3037587119011233</v>
       </c>
     </row>
     <row r="16">
@@ -9827,19 +9827,19 @@
         <v>477285</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>441885</v>
+        <v>441014</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>509996</v>
+        <v>517582</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.4550263959883784</v>
+        <v>0.4550263959883785</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4212771801037297</v>
+        <v>0.4204465364150431</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.486211941850988</v>
+        <v>0.4934437386520171</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>469</v>
@@ -9848,19 +9848,19 @@
         <v>386578</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>358814</v>
+        <v>357658</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>414673</v>
+        <v>418472</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3611625725360328</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3352232295560558</v>
+        <v>0.3341439919652545</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3874099561905709</v>
+        <v>0.3909597512431017</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>857</v>
@@ -9869,19 +9869,19 @@
         <v>863864</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>818505</v>
+        <v>816880</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>911304</v>
+        <v>909074</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4076193556345845</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3862165994214797</v>
+        <v>0.3854499801720658</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4300042936464588</v>
+        <v>0.4289523704141496</v>
       </c>
     </row>
     <row r="17">
@@ -9973,19 +9973,19 @@
         <v>6934</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2731</v>
+        <v>2800</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16196</v>
+        <v>15700</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.008634080836344364</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.003400116278841184</v>
+        <v>0.003487214944458347</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0201676774094861</v>
+        <v>0.01955019502147961</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>30</v>
@@ -9994,19 +9994,19 @@
         <v>24976</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17186</v>
+        <v>17118</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>39880</v>
+        <v>40656</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03074830220708266</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02115794000319246</v>
+        <v>0.02107506511695172</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0490973371845479</v>
+        <v>0.05005311631788103</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>36</v>
@@ -10015,19 +10015,19 @@
         <v>31909</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>21963</v>
+        <v>21464</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>48436</v>
+        <v>47024</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01975406852594997</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01359674290088901</v>
+        <v>0.01328782118860436</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02998494314895794</v>
+        <v>0.02911115447315092</v>
       </c>
     </row>
     <row r="19">
@@ -10044,19 +10044,19 @@
         <v>41548</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>28806</v>
+        <v>28748</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58904</v>
+        <v>59942</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.05173579765918129</v>
+        <v>0.05173579765918131</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03587030859098756</v>
+        <v>0.03579803106706367</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07334803232981195</v>
+        <v>0.07464055233068533</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>42</v>
@@ -10065,19 +10065,19 @@
         <v>30527</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22597</v>
+        <v>22029</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40656</v>
+        <v>41525</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03758343211246273</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0278197029868945</v>
+        <v>0.02712048875229673</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05005329228330334</v>
+        <v>0.05112305320655421</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>75</v>
@@ -10089,16 +10089,16 @@
         <v>57584</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>94446</v>
+        <v>93726</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.04461937569613866</v>
+        <v>0.04461937569613865</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03564820849036057</v>
+        <v>0.03564831590666856</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05846844468126711</v>
+        <v>0.05802287573476218</v>
       </c>
     </row>
     <row r="20">
@@ -10115,19 +10115,19 @@
         <v>71211</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>53874</v>
+        <v>54695</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>89698</v>
+        <v>91832</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08867254359225653</v>
+        <v>0.08867254359225654</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0670851085848073</v>
+        <v>0.06810682783487701</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1116933406120224</v>
+        <v>0.1143505222610382</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>155</v>
@@ -10136,19 +10136,19 @@
         <v>121734</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>104080</v>
+        <v>104561</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>143015</v>
+        <v>141258</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1498706317893631</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1281365027982043</v>
+        <v>0.1287281069158398</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1760701704102634</v>
+        <v>0.1739077362610038</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>220</v>
@@ -10157,19 +10157,19 @@
         <v>192944</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>170338</v>
+        <v>169148</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>223557</v>
+        <v>221468</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1194455912148916</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1054506359177037</v>
+        <v>0.1047140337346947</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1383972142908001</v>
+        <v>0.1371034599655974</v>
       </c>
     </row>
     <row r="21">
@@ -10186,19 +10186,19 @@
         <v>90869</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>71058</v>
+        <v>73208</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>113916</v>
+        <v>117924</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1131517999491373</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08848247326439919</v>
+        <v>0.0911597013652979</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1418504943161343</v>
+        <v>0.1468405579457376</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>121</v>
@@ -10207,19 +10207,19 @@
         <v>84519</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>71697</v>
+        <v>70927</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>100818</v>
+        <v>102010</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1040543873608469</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08826867259763933</v>
+        <v>0.08732055436966461</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1241207741589781</v>
+        <v>0.1255880252291718</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>202</v>
@@ -10228,19 +10228,19 @@
         <v>175388</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>150993</v>
+        <v>150716</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>201966</v>
+        <v>202089</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1085772271304482</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09347492794688846</v>
+        <v>0.09330331723571045</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1250308318759618</v>
+        <v>0.1251069741248705</v>
       </c>
     </row>
     <row r="22">
@@ -10257,19 +10257,19 @@
         <v>260459</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>228355</v>
+        <v>233191</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>290016</v>
+        <v>290028</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.324328047982971</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2843510272952869</v>
+        <v>0.2903736386588584</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.361132894260329</v>
+        <v>0.3611480022478354</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>369</v>
@@ -10278,19 +10278,19 @@
         <v>275713</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>247982</v>
+        <v>251469</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>303159</v>
+        <v>299638</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3394397288077169</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3052985798578068</v>
+        <v>0.3095921565478367</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.37322967779228</v>
+        <v>0.3688946656384893</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>602</v>
@@ -10299,19 +10299,19 @@
         <v>536172</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>497458</v>
+        <v>497758</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>574116</v>
+        <v>576096</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3319268551904804</v>
+        <v>0.3319268551904803</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3079604501000424</v>
+        <v>0.3081462270020628</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3554168836142174</v>
+        <v>0.3566426125052247</v>
       </c>
     </row>
     <row r="23">
@@ -10328,19 +10328,19 @@
         <v>332053</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>302318</v>
+        <v>299605</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>366115</v>
+        <v>365068</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.4134777299801095</v>
+        <v>0.4134777299801096</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.376452044049571</v>
+        <v>0.3730733400919835</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4558920370668184</v>
+        <v>0.4545889637724874</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>330</v>
@@ -10349,19 +10349,19 @@
         <v>274790</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>251573</v>
+        <v>248094</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>301511</v>
+        <v>300586</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3383035177225278</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.309719764731572</v>
+        <v>0.3054375306826884</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.37120075009637</v>
+        <v>0.3700622318668663</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>588</v>
@@ -10370,19 +10370,19 @@
         <v>606843</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>561854</v>
+        <v>564434</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>646622</v>
+        <v>648746</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3756768822420913</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3478255341255676</v>
+        <v>0.3494230224070197</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4003029493670179</v>
+        <v>0.4016178670563155</v>
       </c>
     </row>
     <row r="24">
@@ -10474,19 +10474,19 @@
         <v>15043</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8724</v>
+        <v>8587</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24951</v>
+        <v>24297</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01519405600982613</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008811726679994292</v>
+        <v>0.008673602437014087</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02520127026352926</v>
+        <v>0.02454064503404545</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>32</v>
@@ -10495,19 +10495,19 @@
         <v>21439</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15204</v>
+        <v>15122</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29996</v>
+        <v>30704</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.01916852574823878</v>
+        <v>0.01916852574823879</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.013593641336112</v>
+        <v>0.0135199419561137</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02681872554579251</v>
+        <v>0.02745207373907007</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>48</v>
@@ -10516,19 +10516,19 @@
         <v>36483</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>27445</v>
+        <v>27551</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>49147</v>
+        <v>48854</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01730231419867227</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01301630022000625</v>
+        <v>0.01306620047543963</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0233086118545395</v>
+        <v>0.02316978985082937</v>
       </c>
     </row>
     <row r="26">
@@ -10545,19 +10545,19 @@
         <v>26470</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>17724</v>
+        <v>17030</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>40964</v>
+        <v>39147</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02673551987173664</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0179022692077437</v>
+        <v>0.01720091571398585</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04137512869601232</v>
+        <v>0.03954014604262036</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>109</v>
@@ -10566,19 +10566,19 @@
         <v>75003</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>61883</v>
+        <v>61955</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>89799</v>
+        <v>90387</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.06705862111238983</v>
+        <v>0.06705862111238986</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05532792250264143</v>
+        <v>0.05539228681516296</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08028689541559915</v>
+        <v>0.08081265054028973</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>135</v>
@@ -10587,19 +10587,19 @@
         <v>101473</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>86279</v>
+        <v>84055</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>122838</v>
+        <v>120184</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04812491619010725</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04091886100131432</v>
+        <v>0.03986409539165382</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05825764189600757</v>
+        <v>0.05699887227431201</v>
       </c>
     </row>
     <row r="27">
@@ -10616,19 +10616,19 @@
         <v>119653</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>100894</v>
+        <v>99930</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>142744</v>
+        <v>141102</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1208535478981597</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1019067453474076</v>
+        <v>0.1009333938956395</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1441769498722985</v>
+        <v>0.1425181106112435</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>257</v>
@@ -10637,19 +10637,19 @@
         <v>171682</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>152532</v>
+        <v>151773</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>196302</v>
+        <v>194570</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1534971430803665</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1363755039938059</v>
+        <v>0.1356969057665233</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1755090465123008</v>
+        <v>0.1739601976621</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>390</v>
@@ -10658,19 +10658,19 @@
         <v>291335</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>261333</v>
+        <v>263121</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>322826</v>
+        <v>322342</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1381693488441626</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1239406087905197</v>
+        <v>0.1247883471679116</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.15310450063533</v>
+        <v>0.1528749910497859</v>
       </c>
     </row>
     <row r="28">
@@ -10687,19 +10687,19 @@
         <v>124177</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>103325</v>
+        <v>104806</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>144081</v>
+        <v>144719</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1254231842820173</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1043620593036267</v>
+        <v>0.1058575786072973</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.145527014534603</v>
+        <v>0.1461717457014061</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>241</v>
@@ -10708,19 +10708,19 @@
         <v>162136</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>142556</v>
+        <v>142290</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>184062</v>
+        <v>183605</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1449623585237421</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1274563269123931</v>
+        <v>0.1272184855026788</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1645653534947575</v>
+        <v>0.164157023338049</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>386</v>
@@ -10729,19 +10729,19 @@
         <v>286313</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>257923</v>
+        <v>258988</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>317537</v>
+        <v>319647</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1357877427790359</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.122323185290653</v>
+        <v>0.1228285514866021</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1505961516657811</v>
+        <v>0.1515966698083249</v>
       </c>
     </row>
     <row r="29">
@@ -10758,19 +10758,19 @@
         <v>337060</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>305313</v>
+        <v>304662</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>372153</v>
+        <v>368832</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3404430458782357</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3083778337537602</v>
+        <v>0.3077204401933993</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3758881010151292</v>
+        <v>0.3725343482030536</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>495</v>
@@ -10779,19 +10779,19 @@
         <v>343801</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>319956</v>
+        <v>317602</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>372679</v>
+        <v>369417</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3073840440300621</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2860647798087733</v>
+        <v>0.2839602596983379</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3332036588788769</v>
+        <v>0.3302869674259453</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>834</v>
@@ -10800,19 +10800,19 @@
         <v>680860</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>640659</v>
+        <v>638337</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>726526</v>
+        <v>722633</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3229068923914243</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3038409426952495</v>
+        <v>0.3027397810497047</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3445644150850929</v>
+        <v>0.3427181829455752</v>
       </c>
     </row>
     <row r="30">
@@ -10829,19 +10829,19 @@
         <v>367660</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>332736</v>
+        <v>335453</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>397914</v>
+        <v>401705</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3713506460600245</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3360761204143021</v>
+        <v>0.3388202496155126</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4019081450716645</v>
+        <v>0.4057375430393504</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>427</v>
@@ -10850,19 +10850,19 @@
         <v>344411</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>314535</v>
+        <v>318140</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>373209</v>
+        <v>373910</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.3079293075052006</v>
+        <v>0.3079293075052007</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2812179251890645</v>
+        <v>0.2844415772803615</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.333677240121697</v>
+        <v>0.3343040942891667</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>774</v>
@@ -10871,19 +10871,19 @@
         <v>712071</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>671173</v>
+        <v>672585</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>756462</v>
+        <v>756613</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3377087855965978</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3183124212934786</v>
+        <v>0.3189820300858626</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3587617401248366</v>
+        <v>0.3588335733553689</v>
       </c>
     </row>
     <row r="31">
@@ -10975,19 +10975,19 @@
         <v>38250</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>27305</v>
+        <v>27412</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>53479</v>
+        <v>53752</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01082973976410872</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007731020837507067</v>
+        <v>0.007761248886174274</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0151415920443225</v>
+        <v>0.0152191119578298</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>111</v>
@@ -10996,19 +10996,19 @@
         <v>75090</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>60129</v>
+        <v>60494</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>92977</v>
+        <v>92283</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.02010869927721808</v>
+        <v>0.02010869927721807</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01610214748341212</v>
+        <v>0.01619985923192496</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02489861956397608</v>
+        <v>0.02471269700325923</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>152</v>
@@ -11017,19 +11017,19 @@
         <v>113340</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>95329</v>
+        <v>94337</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>134730</v>
+        <v>133481</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01559840410438294</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01311969804953457</v>
+        <v>0.01298321133505054</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01854227686600058</v>
+        <v>0.01837033001077736</v>
       </c>
     </row>
     <row r="33">
@@ -11046,19 +11046,19 @@
         <v>112378</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>91594</v>
+        <v>90606</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>139934</v>
+        <v>137376</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.03181818759595991</v>
+        <v>0.0318181875959599</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02593338852301127</v>
+        <v>0.02565368933449215</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03962008505490766</v>
+        <v>0.03889578910681238</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>281</v>
@@ -11067,19 +11067,19 @@
         <v>185289</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>165713</v>
+        <v>164684</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>210544</v>
+        <v>209638</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.04961916656339732</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.04437682397754988</v>
+        <v>0.0441014422985419</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.05638225027111395</v>
+        <v>0.05613987035732972</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>386</v>
@@ -11088,19 +11088,19 @@
         <v>297667</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>269823</v>
+        <v>266663</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>333521</v>
+        <v>330890</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.04096650789028403</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03713437616127854</v>
+        <v>0.0366995383753301</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0459009307040362</v>
+        <v>0.04553886373030758</v>
       </c>
     </row>
     <row r="34">
@@ -11117,19 +11117,19 @@
         <v>359715</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>325371</v>
+        <v>325967</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>401701</v>
+        <v>397671</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1018476227375191</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09212363562546436</v>
+        <v>0.09229236559078513</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.113735319100715</v>
+        <v>0.1125941875956955</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>867</v>
@@ -11138,19 +11138,19 @@
         <v>542304</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>505608</v>
+        <v>506923</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>578112</v>
+        <v>580897</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.1452256999852192</v>
+        <v>0.1452256999852193</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1353987905859149</v>
+        <v>0.1357509260147533</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1548147306148199</v>
+        <v>0.1555605984964334</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1276</v>
@@ -11159,19 +11159,19 @@
         <v>902019</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>855460</v>
+        <v>851412</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>957451</v>
+        <v>955034</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1241405845538221</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.117732887082858</v>
+        <v>0.1171757473992285</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1317693135745067</v>
+        <v>0.1314367699208684</v>
       </c>
     </row>
     <row r="35">
@@ -11188,19 +11188,19 @@
         <v>452562</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>410160</v>
+        <v>406738</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>494110</v>
+        <v>494164</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1281356849255989</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1161302730129482</v>
+        <v>0.1151612766305799</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1398993225163854</v>
+        <v>0.1399147971073411</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>834</v>
@@ -11209,19 +11209,19 @@
         <v>526174</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>489374</v>
+        <v>489400</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>564104</v>
+        <v>561932</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1409061902000448</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1310513406135687</v>
+        <v>0.1310581538223975</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1510635170145469</v>
+        <v>0.150481904027005</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1322</v>
@@ -11230,19 +11230,19 @@
         <v>978736</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>920560</v>
+        <v>924679</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1033911</v>
+        <v>1035350</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.13469873254139</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1266922832062486</v>
+        <v>0.1272591643737362</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1422921731522177</v>
+        <v>0.1424902024184118</v>
       </c>
     </row>
     <row r="36">
@@ -11259,19 +11259,19 @@
         <v>1088436</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1024300</v>
+        <v>1028518</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1146689</v>
+        <v>1147000</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3081734880859495</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2900141501193257</v>
+        <v>0.2912086540413993</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3246666934397753</v>
+        <v>0.3247548642974081</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1657</v>
@@ -11280,19 +11280,19 @@
         <v>1127187</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1077280</v>
+        <v>1075622</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1182875</v>
+        <v>1179358</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3018535284728687</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2884888635519713</v>
+        <v>0.2880449849670499</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3167665680816765</v>
+        <v>0.3158246444500932</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2718</v>
@@ -11301,19 +11301,19 @@
         <v>2215623</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2141305</v>
+        <v>2146089</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2297684</v>
+        <v>2297827</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.3049255198200794</v>
+        <v>0.3049255198200795</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2946974395749454</v>
+        <v>0.2953559008015186</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.316219213742704</v>
+        <v>0.3162389142428845</v>
       </c>
     </row>
     <row r="37">
@@ -11330,19 +11330,19 @@
         <v>1480554</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1414509</v>
+        <v>1410473</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1554230</v>
+        <v>1549857</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4191952768908638</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4004956283578163</v>
+        <v>0.3993529416781811</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.44005557977323</v>
+        <v>0.4388172825670189</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1612</v>
@@ -11351,19 +11351,19 @@
         <v>1278173</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1228503</v>
+        <v>1222048</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1337158</v>
+        <v>1328815</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3422867155012519</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3289853714868817</v>
+        <v>0.3272569580357679</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3580824359509108</v>
+        <v>0.3558484376126319</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2883</v>
@@ -11372,19 +11372,19 @@
         <v>2758727</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2671627</v>
+        <v>2669075</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2841222</v>
+        <v>2837849</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.3796702510900414</v>
+        <v>0.3796702510900415</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3676831575629455</v>
+        <v>0.3673319472175712</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3910236774138043</v>
+        <v>0.3905594958730817</v>
       </c>
     </row>
     <row r="38">
